--- a/Modelo Logistica/Modelo Logística vDraft(II).xlsx
+++ b/Modelo Logistica/Modelo Logística vDraft(II).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" activeTab="3"/>
+    <workbookView xWindow="500" yWindow="2920" windowWidth="14400" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Frecuencia" sheetId="4" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
     <definedName name="_DAT1">'[1]Saldo Cuenta'!#REF!</definedName>
@@ -45,7 +46,7 @@
     <definedName name="_DAT7">#REF!</definedName>
     <definedName name="_DAT8">#REF!</definedName>
     <definedName name="_DAT9">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Purgas!$A$1:$C$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Purgas!$A$1:$C$90</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Recursos!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tareas!$A$1:$K$1</definedName>
     <definedName name="_p2">[2]PARAM!$A$3</definedName>
@@ -105,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="230">
   <si>
     <t>Actividad</t>
   </si>
@@ -335,381 +336,141 @@
     <t>Categoria</t>
   </si>
   <si>
-    <t>CAPTACION 02-S</t>
-  </si>
-  <si>
     <t>02S</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>SEP AP 02-S</t>
-  </si>
-  <si>
-    <t>SEP AP 07-S</t>
-  </si>
-  <si>
     <t>07S</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>SEP AP 08-S</t>
-  </si>
-  <si>
     <t>08S</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>EC 11-S</t>
-  </si>
-  <si>
     <t>11S</t>
   </si>
   <si>
-    <t>PURGA APORTE 11-S</t>
-  </si>
-  <si>
-    <t>PURGA CAPTACIÓN DE BAJA 11-S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEP BOOSTER 11-S </t>
-  </si>
-  <si>
-    <t>SEP AP 11-S</t>
-  </si>
-  <si>
-    <t>PURGA GASODUCTO 11-S 2232</t>
-  </si>
-  <si>
-    <t>KA-DRUM 13-S</t>
-  </si>
-  <si>
     <t>13S</t>
   </si>
   <si>
-    <t>PURGA APORTE 14-S</t>
-  </si>
-  <si>
     <t>14S</t>
   </si>
   <si>
-    <t>PURGA GASODUCTO15-S</t>
-  </si>
-  <si>
     <t>15S</t>
   </si>
   <si>
-    <t>PURGA GASODUCTO 16-S</t>
-  </si>
-  <si>
     <t>16S</t>
   </si>
   <si>
-    <t>SEP AP. 09 Y 16-S</t>
-  </si>
-  <si>
-    <t>PURGA APORTE 17-E</t>
-  </si>
-  <si>
     <t>17E</t>
   </si>
   <si>
-    <t>SEP. 17-E</t>
-  </si>
-  <si>
-    <t>PURGA GASODUCTO 17-S 1009</t>
-  </si>
-  <si>
     <t>17S</t>
   </si>
   <si>
-    <t>PURGA GASODUCTO 17-S REFUGIO</t>
-  </si>
-  <si>
-    <t>PURGA GASODUCTO  20-S.1</t>
-  </si>
-  <si>
     <t>20S</t>
   </si>
   <si>
-    <t>PURGA GASODUCTO 20-S</t>
-  </si>
-  <si>
-    <t>DECANTADOR AP 20-S</t>
-  </si>
-  <si>
-    <t>PURGA GASODUCTO 21-S</t>
-  </si>
-  <si>
     <t>21S</t>
   </si>
   <si>
-    <t>PURGA GAS INSTRUMENTOS DE 21-S</t>
-  </si>
-  <si>
-    <t>PURGA GASODUCTO 25-S</t>
-  </si>
-  <si>
     <t>25S</t>
   </si>
   <si>
-    <t>PURGA GASODUCTO 25-S ANILLO</t>
-  </si>
-  <si>
-    <t>SEP AP 25-S</t>
-  </si>
-  <si>
     <t>PURGA GASODUCTO MG SUR</t>
   </si>
   <si>
-    <t>PURGA GASODUCTO 26-S</t>
-  </si>
-  <si>
     <t>26S</t>
   </si>
   <si>
-    <t>AP. 26-S</t>
-  </si>
-  <si>
-    <t>PURGA APORTE 29-S</t>
-  </si>
-  <si>
     <t>29S</t>
   </si>
   <si>
-    <t>PURGA CAPTACIÓN BAJA 29-S</t>
-  </si>
-  <si>
-    <t>SEP AP 29-S</t>
-  </si>
-  <si>
-    <t>PURGA APORTE 2-S</t>
-  </si>
-  <si>
-    <t>2S</t>
-  </si>
-  <si>
-    <t>PURGA CAPTACIÓN DE BAJA 2-S</t>
-  </si>
-  <si>
-    <t>PURGA GASODUCTO 2-S</t>
-  </si>
-  <si>
-    <t>PURGA APORTE 31-S</t>
-  </si>
-  <si>
     <t>31S</t>
   </si>
   <si>
-    <t xml:space="preserve">SEP AP. 15 Y 32-S </t>
-  </si>
-  <si>
     <t>32S</t>
   </si>
   <si>
-    <t>PURGA CAPTACIÓN BAJA 33-S</t>
-  </si>
-  <si>
     <t>33S</t>
   </si>
   <si>
     <t>HEORBIGUER</t>
   </si>
   <si>
-    <t>PURGA GASODUCTO 33-S</t>
-  </si>
-  <si>
-    <t>SEP AP 33-S</t>
-  </si>
-  <si>
-    <t>PURGA GASODUCTO 34-S</t>
-  </si>
-  <si>
     <t>34S</t>
   </si>
   <si>
-    <t>SEP. AP 34-S</t>
-  </si>
-  <si>
-    <t>PURGA GASODUCTO 10" 35-S</t>
-  </si>
-  <si>
     <t>35S</t>
   </si>
   <si>
-    <t>35-S</t>
-  </si>
-  <si>
-    <t>PURGA APORTE 36-S</t>
-  </si>
-  <si>
     <t>36S</t>
   </si>
   <si>
-    <t>SEP AP 36-S</t>
-  </si>
-  <si>
-    <t>PURGA GASODUCTO APORTE 37-S</t>
-  </si>
-  <si>
     <t>37S</t>
   </si>
   <si>
-    <t>PURGA GASODUTO 37-S</t>
-  </si>
-  <si>
-    <t>PURGA GASODUCTO 38-S</t>
-  </si>
-  <si>
     <t>38S</t>
   </si>
   <si>
-    <t>DECANTADOR DE AP. 38-S</t>
-  </si>
-  <si>
-    <t>PURGA GASODUCTO 39-S</t>
-  </si>
-  <si>
     <t>39S</t>
   </si>
   <si>
-    <t>SEP AP 39-S</t>
-  </si>
-  <si>
-    <t>PURGA GASODUCTO 40-S</t>
-  </si>
-  <si>
     <t>40S</t>
   </si>
   <si>
-    <t>SEP AP. 40-S</t>
-  </si>
-  <si>
-    <t>PURGA GASODUCTO 41-S</t>
-  </si>
-  <si>
     <t>41S</t>
   </si>
   <si>
-    <t>PURGA CAPTACION DE BAJA 41-S 2572</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>PURGA APORTE 42-S</t>
-  </si>
-  <si>
     <t>42S</t>
   </si>
   <si>
-    <t>PURGA GASODUCTO 42-S</t>
-  </si>
-  <si>
-    <t>PURGA GASODUCTO 4-S</t>
-  </si>
-  <si>
-    <t>4S</t>
-  </si>
-  <si>
-    <t>PURGA APORTE 8-S</t>
-  </si>
-  <si>
-    <t>8S</t>
-  </si>
-  <si>
-    <t>PURGA GASODUCTO 9-S</t>
-  </si>
-  <si>
-    <t>9S</t>
-  </si>
-  <si>
-    <t>PURGA CAPTACIÓN DE BAJA 9-S</t>
-  </si>
-  <si>
-    <t>SEP. TURBINAS</t>
-  </si>
-  <si>
     <t>Planta Central</t>
   </si>
   <si>
-    <t>PURGA GASODUCTO 10" TG</t>
-  </si>
-  <si>
     <t>Planta Gas</t>
   </si>
   <si>
-    <t>KA-DRUM HANOVER</t>
-  </si>
-  <si>
-    <t>MAIFOUL LP.</t>
-  </si>
-  <si>
     <t>Planta La Petiza</t>
   </si>
   <si>
-    <t>PURGA GASODUCTO 10" LP</t>
-  </si>
-  <si>
     <t>REFUGIO</t>
   </si>
   <si>
-    <t>S-1009</t>
-  </si>
-  <si>
     <t>S1009</t>
   </si>
   <si>
-    <t>SEP COALESCENTE S-13</t>
-  </si>
-  <si>
     <t>S13</t>
   </si>
   <si>
-    <t>DOBLE VALVULA S-20</t>
-  </si>
-  <si>
     <t>S20</t>
   </si>
   <si>
-    <t>PURGA GASODUCTO 10" 2013</t>
-  </si>
-  <si>
     <t>S2013</t>
   </si>
   <si>
     <t xml:space="preserve">SLUGCATCHER </t>
   </si>
   <si>
-    <t>PURGA GASODUCTO 10" 2016</t>
-  </si>
-  <si>
     <t>S2016</t>
   </si>
   <si>
-    <t>S-2016</t>
-  </si>
-  <si>
-    <t>S-2021</t>
-  </si>
-  <si>
     <t>S2021</t>
   </si>
   <si>
-    <t>PURGA CAPTACION DE BAJA S-2044</t>
-  </si>
-  <si>
     <t>S2044</t>
   </si>
   <si>
-    <t>PURGA GASODUCTO 10" 2274</t>
-  </si>
-  <si>
     <t>S2274</t>
   </si>
   <si>
@@ -719,57 +480,21 @@
     <t>S237</t>
   </si>
   <si>
-    <t>S-237</t>
-  </si>
-  <si>
-    <t>S-339</t>
-  </si>
-  <si>
     <t>S339</t>
   </si>
   <si>
-    <t>S-432</t>
-  </si>
-  <si>
     <t>S432</t>
   </si>
   <si>
-    <t>S-551</t>
-  </si>
-  <si>
     <t>S551</t>
   </si>
   <si>
-    <t>PURGA GASODUCTO 10" 774</t>
-  </si>
-  <si>
     <t>S774</t>
   </si>
   <si>
-    <t>S-774</t>
-  </si>
-  <si>
-    <t>S-843</t>
-  </si>
-  <si>
-    <t>S843</t>
-  </si>
-  <si>
-    <t>PURGA GASODUCTO 10" 982</t>
-  </si>
-  <si>
-    <t>S982</t>
-  </si>
-  <si>
-    <t>S-982</t>
-  </si>
-  <si>
     <t>SATELITE 2 AUX</t>
   </si>
   <si>
-    <t>SAT02</t>
-  </si>
-  <si>
     <t>Mensual</t>
   </si>
   <si>
@@ -809,10 +534,268 @@
     <t>Unidad</t>
   </si>
   <si>
-    <t>cagra desc</t>
-  </si>
-  <si>
     <t>Tasa</t>
+  </si>
+  <si>
+    <t>SAT2</t>
+  </si>
+  <si>
+    <t>CAPTACION 02_S</t>
+  </si>
+  <si>
+    <t>SEP AP 02_S</t>
+  </si>
+  <si>
+    <t>SEP AP 07_S</t>
+  </si>
+  <si>
+    <t>SEP AP 08_S</t>
+  </si>
+  <si>
+    <t>EC 11_S</t>
+  </si>
+  <si>
+    <t>PURGA APORTE 11_S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEP BOOSTER 11_S </t>
+  </si>
+  <si>
+    <t>SEP AP 11_S</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO 11_S 2232</t>
+  </si>
+  <si>
+    <t>KA_DRUM 13_S</t>
+  </si>
+  <si>
+    <t>PURGA APORTE 14_S</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO15_S</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO 16_S</t>
+  </si>
+  <si>
+    <t>PURGA APORTE 17_E</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO 17_S 1009</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO 17_S REFUGIO</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO 20_S</t>
+  </si>
+  <si>
+    <t>DECANTADOR AP 20_S</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO 21_S</t>
+  </si>
+  <si>
+    <t>PURGA GAS INSTRUMENTOS DE 21_S</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO 25_S</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO 25_S ANILLO</t>
+  </si>
+  <si>
+    <t>SEP AP 25_S</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO 26_S</t>
+  </si>
+  <si>
+    <t>PURGA APORTE 29_S</t>
+  </si>
+  <si>
+    <t>SEP AP 29_S</t>
+  </si>
+  <si>
+    <t>PURGA APORTE 2_S</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO 2_S</t>
+  </si>
+  <si>
+    <t>PURGA APORTE 31_S</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO 33_S</t>
+  </si>
+  <si>
+    <t>SEP AP 33_S</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO 34_S</t>
+  </si>
+  <si>
+    <t>35_S</t>
+  </si>
+  <si>
+    <t>PURGA APORTE 36_S</t>
+  </si>
+  <si>
+    <t>SEP AP 36_S</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO APORTE 37_S</t>
+  </si>
+  <si>
+    <t>PURGA GASODUTO 37_S</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO 38_S</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO 39_S</t>
+  </si>
+  <si>
+    <t>SEP AP 39_S</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO 40_S</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO 41_S</t>
+  </si>
+  <si>
+    <t>PURGA CAPTACION DE BAJA 41_S 2572</t>
+  </si>
+  <si>
+    <t>PURGA APORTE 42_S</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO 42_S</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO 4_S</t>
+  </si>
+  <si>
+    <t>PURGA APORTE 8_S</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO 9_S</t>
+  </si>
+  <si>
+    <t>KA_DRUM HANOVER</t>
+  </si>
+  <si>
+    <t>S_1009</t>
+  </si>
+  <si>
+    <t>SEP COALESCENTE S_13</t>
+  </si>
+  <si>
+    <t>DOBLE VALVULA S_20</t>
+  </si>
+  <si>
+    <t>S_2016</t>
+  </si>
+  <si>
+    <t>S_2021</t>
+  </si>
+  <si>
+    <t>PURGA CAPTACION DE BAJA S_2044</t>
+  </si>
+  <si>
+    <t>S_237</t>
+  </si>
+  <si>
+    <t>S_339</t>
+  </si>
+  <si>
+    <t>S_432</t>
+  </si>
+  <si>
+    <t>S_551</t>
+  </si>
+  <si>
+    <t>S_774</t>
+  </si>
+  <si>
+    <t>SEP 17_E</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO  20_S 1</t>
+  </si>
+  <si>
+    <t>AP 26_S</t>
+  </si>
+  <si>
+    <t>PURGA CAPTACION DE BAJA 11_S</t>
+  </si>
+  <si>
+    <t>PURGA CAPTACION BAJA 29_S</t>
+  </si>
+  <si>
+    <t>PURGA CAPTACION DE BAJA 2_S</t>
+  </si>
+  <si>
+    <t>PURGA CAPTACION BAJA 33_S</t>
+  </si>
+  <si>
+    <t>PURGA CAPTACION DE BAJA 9_S</t>
+  </si>
+  <si>
+    <t>SEP AP 09 Y 16_S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEP AP 15 Y 32_S </t>
+  </si>
+  <si>
+    <t>DECANTADOR DE AP 38_S</t>
+  </si>
+  <si>
+    <t>SEP AP 40_S</t>
+  </si>
+  <si>
+    <t>SEP AP 34_S</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO 10 35_S</t>
+  </si>
+  <si>
+    <t>SEP TURBINAS</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO 10 TG</t>
+  </si>
+  <si>
+    <t>MAIFOUL LP</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO 10 2013</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO 10 2016</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO 10 2274</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO 10 774</t>
+  </si>
+  <si>
+    <t>PURGA GASODUCTO 10 LP</t>
+  </si>
+  <si>
+    <t>dias</t>
+  </si>
+  <si>
+    <t>prioridad</t>
+  </si>
+  <si>
+    <t>04S</t>
+  </si>
+  <si>
+    <t>09S</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1218,21 +1201,6 @@
         <color auto="1"/>
       </top>
       <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1365,7 +1333,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="292">
+  <cellStyleXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1441,12 +1409,12 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0">
@@ -1490,17 +1458,17 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="173" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="173" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1627,15 +1595,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="172" fontId="10" fillId="0" borderId="0">
@@ -1675,27 +1643,29 @@
     </xf>
     <xf numFmtId="15" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1751,14 +1721,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="292">
+  <cellStyles count="294">
     <cellStyle name="20% - Accent1" xfId="2"/>
     <cellStyle name="20% - Accent1 2" xfId="3"/>
     <cellStyle name="20% - Accent1 2 2" xfId="4"/>
@@ -1858,6 +1825,7 @@
     <cellStyle name="Fixed" xfId="98"/>
     <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="99"/>
     <cellStyle name="Heading 1" xfId="100"/>
     <cellStyle name="Heading 2" xfId="101"/>
@@ -1866,6 +1834,7 @@
     <cellStyle name="Hipervínculo 2" xfId="104"/>
     <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="292" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="105"/>
     <cellStyle name="Input 2" xfId="106"/>
     <cellStyle name="Input 3" xfId="107"/>
@@ -4400,6 +4369,6070 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Mant. Eléctrico"/>
+      <sheetName val="Mant. Eléctrico Aux"/>
+      <sheetName val="Mant. Mecánico"/>
+      <sheetName val="Mant. Mecánico Aux"/>
+      <sheetName val="Mant. Instrumental"/>
+      <sheetName val="Mant. Instrumental Aux"/>
+      <sheetName val="Rutas"/>
+      <sheetName val="Puntos de Operacion"/>
+      <sheetName val="Output Mant. Elect."/>
+      <sheetName val="Output Mant. Mecanic."/>
+      <sheetName val="Output Mant. Instrument."/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>S2711</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>S2650</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>S2679</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>S2695</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6" t="str">
+            <v>S2690</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7" t="str">
+            <v>S2706</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>S2628</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>S2686</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>S2705</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v>S2416</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>S2660</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>S2707</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>S2637</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15" t="str">
+            <v>S2703</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>S892</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17" t="str">
+            <v>S841</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18" t="str">
+            <v>S2689</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19" t="str">
+            <v>S2044</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20" t="str">
+            <v>S2673</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21" t="str">
+            <v>S2644</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22" t="str">
+            <v>S2685</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>S2688</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24" t="str">
+            <v>S2456</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25" t="str">
+            <v>S237</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26" t="str">
+            <v>S915</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27" t="str">
+            <v>S2669</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28" t="str">
+            <v>S2551</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v>S908</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>S2694</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31" t="str">
+            <v>S2684</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32" t="str">
+            <v>S2319</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33" t="str">
+            <v>S944</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34" t="str">
+            <v>S2672</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35" t="str">
+            <v>S2668</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36" t="str">
+            <v>S2681</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37" t="str">
+            <v>S2640</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38" t="str">
+            <v>S2656</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39" t="str">
+            <v>S2058</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40" t="str">
+            <v>S916</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41" t="str">
+            <v>S2185</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42" t="str">
+            <v>S2713</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43" t="str">
+            <v>S2194</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44" t="str">
+            <v>S2697</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45" t="str">
+            <v>S2221</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46" t="str">
+            <v>S2545</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47" t="str">
+            <v>S2614</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48" t="str">
+            <v>S2345</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49" t="str">
+            <v>S2507</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50" t="str">
+            <v>S2698</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51" t="str">
+            <v>S2285</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52" t="str">
+            <v>PQ1010</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53" t="str">
+            <v>S2704</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="C54" t="str">
+            <v>PQ1003</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="C55" t="str">
+            <v>S2296</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56" t="str">
+            <v>S924</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57" t="str">
+            <v>S2463</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58" t="str">
+            <v>S2696</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59" t="str">
+            <v>S948</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60" t="str">
+            <v>S2655</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61" t="str">
+            <v>S2710</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62" t="str">
+            <v>S2680</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63" t="str">
+            <v>S2433</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="C64" t="str">
+            <v>S2587</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="C65" t="str">
+            <v>S2646</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="C66" t="str">
+            <v>S803</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="C67" t="str">
+            <v>S2088</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="C68" t="str">
+            <v>S2663</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="C69" t="str">
+            <v>S846</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="C70" t="str">
+            <v>S858</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="C71" t="str">
+            <v>S999</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="C72" t="str">
+            <v>S2004</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="C73" t="str">
+            <v>S2678</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="C74" t="str">
+            <v>S2687</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="C75" t="str">
+            <v>S847</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="C76" t="str">
+            <v>S2477</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="C77" t="str">
+            <v>S755</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="C78" t="str">
+            <v>S510</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="C79" t="str">
+            <v>S2298</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="C80" t="str">
+            <v>S.a-922</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="C81" t="str">
+            <v>S738</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="C82" t="str">
+            <v>S824</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="C83" t="str">
+            <v>S832</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="C84" t="str">
+            <v>S925</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="C85" t="str">
+            <v>S2486</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="C86" t="str">
+            <v>S2699</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="C87" t="str">
+            <v>S2702</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="C88" t="str">
+            <v>S2714</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="C89" t="str">
+            <v>S2318</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="C90" t="str">
+            <v>S937</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="C91" t="str">
+            <v>S2652</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="C92" t="str">
+            <v>S1041</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="C93" t="str">
+            <v>S2510</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="C94" t="str">
+            <v>S2460</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="C95" t="str">
+            <v>S2524</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="C96" t="str">
+            <v>S2677</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="C97" t="str">
+            <v>S2180</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="C98" t="str">
+            <v>S961</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="C99" t="str">
+            <v>S498</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="C100" t="str">
+            <v>S2593</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="C101" t="str">
+            <v>S2045</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="C102" t="str">
+            <v>S906</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="C103" t="str">
+            <v>S2709</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="C104" t="str">
+            <v>S2692</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="C105" t="str">
+            <v>S2256</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="C106" t="str">
+            <v>S2034</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="C107" t="str">
+            <v>PQ1006</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="C108" t="str">
+            <v>S2487</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="C109" t="str">
+            <v>S2505</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="C110" t="str">
+            <v>S1034</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="C111" t="str">
+            <v>S2414</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="C112" t="str">
+            <v>S920</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="C113" t="str">
+            <v>S714</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="C114" t="str">
+            <v>S2544</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="C115" t="str">
+            <v>S2630</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="C116" t="str">
+            <v>S758</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="C117" t="str">
+            <v>S2465</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="C118" t="str">
+            <v>S888</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="C119" t="str">
+            <v>S2556</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="C120" t="str">
+            <v>S2315</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="C121" t="str">
+            <v>S2152</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="C122" t="str">
+            <v>S813</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="C123" t="str">
+            <v>S2407</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="C124" t="str">
+            <v>S2200</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="C125" t="str">
+            <v>S2207</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="C126" t="str">
+            <v>S811</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="C127" t="str">
+            <v>S2317</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="C128" t="str">
+            <v>S2461</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="C129" t="str">
+            <v>S2693</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="C130" t="str">
+            <v>S1004</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="C131" t="str">
+            <v>S2143</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="C132" t="str">
+            <v>S2674</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="C133" t="str">
+            <v>S2003</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="C134" t="str">
+            <v>S2432</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="C135" t="str">
+            <v>S2406</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="C136" t="str">
+            <v>S778</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="C137" t="str">
+            <v>S2645</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="C138" t="str">
+            <v>S2366</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="C139" t="str">
+            <v>S2239</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="C140" t="str">
+            <v>S.a-807</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="C141" t="str">
+            <v>S2484</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="C142" t="str">
+            <v>S2490</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="C143" t="str">
+            <v>S2439</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="C144" t="str">
+            <v>S779</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="C145" t="str">
+            <v>S2079</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="C146" t="str">
+            <v>S745</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="C147" t="str">
+            <v>S930</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="C148" t="str">
+            <v>S419</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="C149" t="str">
+            <v>S1033</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="C150" t="str">
+            <v>S2081</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="C151" t="str">
+            <v>S2676</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="C152" t="str">
+            <v>S2435</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="C153" t="str">
+            <v>S2037</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="C154" t="str">
+            <v>S315</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="C155" t="str">
+            <v>S707</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="C156" t="str">
+            <v>S784</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="C157" t="str">
+            <v>S2146</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="C158" t="str">
+            <v>S2096</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="C159" t="str">
+            <v>S2446</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="C160" t="str">
+            <v>S2515</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="C161" t="str">
+            <v>S2659</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="C162" t="str">
+            <v>S744</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="C163" t="str">
+            <v>S1001</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="C164" t="str">
+            <v>S946</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="C165" t="str">
+            <v>S2328</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="C166" t="str">
+            <v>S2367</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="C167" t="str">
+            <v>S2520</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="C168" t="str">
+            <v>S2233</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="C169" t="str">
+            <v>S940</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="C170" t="str">
+            <v>S2054</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="C171" t="str">
+            <v>S2205</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="C172" t="str">
+            <v>S2062</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="C173" t="str">
+            <v>S2005B</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="C174" t="str">
+            <v>S969</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="C175" t="str">
+            <v>S2021</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="C176" t="str">
+            <v>S845</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="C177" t="str">
+            <v>S830</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="C178" t="str">
+            <v>S872</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="C179" t="str">
+            <v>S2006</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="C180" t="str">
+            <v>S632</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="C181" t="str">
+            <v>S2057</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="C182" t="str">
+            <v>S2010</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="C183" t="str">
+            <v>S2122</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="C184" t="str">
+            <v>PQ1007</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="C185" t="str">
+            <v>S851</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="C186" t="str">
+            <v>S2500</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="C187" t="str">
+            <v>S2290</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="C188" t="str">
+            <v>S2451</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="C189" t="str">
+            <v>S2321</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="C190" t="str">
+            <v>S2712</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="C191" t="str">
+            <v>S2511</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="C192" t="str">
+            <v>S2666</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="C193" t="str">
+            <v>S2657</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="C194" t="str">
+            <v>S2648</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="C195" t="str">
+            <v>S2522</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="C196" t="str">
+            <v>S967</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="C197" t="str">
+            <v>S2172</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="C198" t="str">
+            <v>S855</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="C199" t="str">
+            <v>S2386</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="C200" t="str">
+            <v>S2572</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="C201" t="str">
+            <v>S783</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="C202" t="str">
+            <v>S2528</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="C203" t="str">
+            <v>PQO.x1001</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="C204" t="str">
+            <v>S942</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="C205" t="str">
+            <v>S2560</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="C206" t="str">
+            <v>S2104</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="C207" t="str">
+            <v>S2643</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="C208" t="str">
+            <v>S966</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="C209" t="str">
+            <v>S2521</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="C210" t="str">
+            <v>S945</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="C211" t="str">
+            <v>S2417</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="C212" t="str">
+            <v>S949</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="C213" t="str">
+            <v>S2550</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="C214" t="str">
+            <v>S923</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="C215" t="str">
+            <v>S2604</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="C216" t="str">
+            <v>S2493</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="C217" t="str">
+            <v>S2332</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="C218" t="str">
+            <v>S2009</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="C219" t="str">
+            <v>S2023</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="C220" t="str">
+            <v>S2658</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="C221" t="str">
+            <v>S981</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="C222" t="str">
+            <v>S715</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="C223" t="str">
+            <v>S2160</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="C224" t="str">
+            <v>S2649</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="C225" t="str">
+            <v>S821</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="C226" t="str">
+            <v>S839</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="C227" t="str">
+            <v>S801</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="C228" t="str">
+            <v>S2422</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="C229" t="str">
+            <v>S938</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="C230" t="str">
+            <v>S2578</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="C231" t="str">
+            <v>S933</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="C232" t="str">
+            <v>S2595</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="C233" t="str">
+            <v>S2350</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="C234" t="str">
+            <v>S2105</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="C235" t="str">
+            <v>S636</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="C236" t="str">
+            <v>S2223</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="C237" t="str">
+            <v>S2462</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="C238" t="str">
+            <v>S2481B</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="C239" t="str">
+            <v>S450</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="C240" t="str">
+            <v>S835</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="C241" t="str">
+            <v>S2370</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="C242" t="str">
+            <v>S2141</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="C243" t="str">
+            <v>S1035</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="C244" t="str">
+            <v>S2576</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="C245" t="str">
+            <v>S2020</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="C246" t="str">
+            <v>S2431</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="C247" t="str">
+            <v>S893</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="C248" t="str">
+            <v>S795</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="C249" t="str">
+            <v>S2140</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="C250" t="str">
+            <v>S849</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="C251" t="str">
+            <v>S790</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="C252" t="str">
+            <v>S2120</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="C253" t="str">
+            <v>S2013</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="C254" t="str">
+            <v>S886</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="C255" t="str">
+            <v>S844</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="C256" t="str">
+            <v>S863</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="C257" t="str">
+            <v>S2571</v>
+          </cell>
+        </row>
+        <row r="258">
+          <cell r="C258" t="str">
+            <v>S881</v>
+          </cell>
+        </row>
+        <row r="259">
+          <cell r="C259" t="str">
+            <v>S900</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="C260" t="str">
+            <v>S2429</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="C261" t="str">
+            <v>S965</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="C262" t="str">
+            <v>S2238</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="C263" t="str">
+            <v>S950</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="C264" t="str">
+            <v>S2651</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="C265" t="str">
+            <v>S963</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="C266" t="str">
+            <v>S2224</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="C267" t="str">
+            <v>PQ1005</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="C268" t="str">
+            <v>S2623</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="C269" t="str">
+            <v>S2632</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="C270" t="str">
+            <v>S921</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="C271" t="str">
+            <v>S2262</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="C272" t="str">
+            <v>S2084</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="C273" t="str">
+            <v>S2112</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="C274" t="str">
+            <v>S809</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="C275" t="str">
+            <v>S2236</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="C276" t="str">
+            <v>S2215</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="C277" t="str">
+            <v>S444</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="C278" t="str">
+            <v>S2375</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="C279" t="str">
+            <v>S581</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="C280" t="str">
+            <v>S871</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="C281" t="str">
+            <v>S993</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="C282" t="str">
+            <v>S976</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="C283" t="str">
+            <v>S2436</v>
+          </cell>
+        </row>
+        <row r="284">
+          <cell r="C284" t="str">
+            <v>S2019</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="C285" t="str">
+            <v>S2624</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="C286" t="str">
+            <v>S2662</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="C287" t="str">
+            <v>S2042</v>
+          </cell>
+        </row>
+        <row r="288">
+          <cell r="C288" t="str">
+            <v>S2581</v>
+          </cell>
+        </row>
+        <row r="289">
+          <cell r="C289" t="str">
+            <v>S2369</v>
+          </cell>
+        </row>
+        <row r="290">
+          <cell r="C290" t="str">
+            <v>S905</v>
+          </cell>
+        </row>
+        <row r="291">
+          <cell r="C291" t="str">
+            <v>S2425</v>
+          </cell>
+        </row>
+        <row r="292">
+          <cell r="C292" t="str">
+            <v>S2540</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="C293" t="str">
+            <v>S1008</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="C294" t="str">
+            <v>S827</v>
+          </cell>
+        </row>
+        <row r="295">
+          <cell r="C295" t="str">
+            <v>S2418</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="C296" t="str">
+            <v>S2629</v>
+          </cell>
+        </row>
+        <row r="297">
+          <cell r="C297" t="str">
+            <v>S2083</v>
+          </cell>
+        </row>
+        <row r="298">
+          <cell r="C298" t="str">
+            <v>S2305</v>
+          </cell>
+        </row>
+        <row r="299">
+          <cell r="C299" t="str">
+            <v>S2028</v>
+          </cell>
+        </row>
+        <row r="300">
+          <cell r="C300" t="str">
+            <v>S998</v>
+          </cell>
+        </row>
+        <row r="301">
+          <cell r="C301" t="str">
+            <v>S2582</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="C302" t="str">
+            <v>S2564</v>
+          </cell>
+        </row>
+        <row r="303">
+          <cell r="C303" t="str">
+            <v>S2368</v>
+          </cell>
+        </row>
+        <row r="304">
+          <cell r="C304" t="str">
+            <v>S931</v>
+          </cell>
+        </row>
+        <row r="305">
+          <cell r="C305" t="str">
+            <v>S634</v>
+          </cell>
+        </row>
+        <row r="306">
+          <cell r="C306" t="str">
+            <v>S2343</v>
+          </cell>
+        </row>
+        <row r="307">
+          <cell r="C307" t="str">
+            <v>S2051</v>
+          </cell>
+        </row>
+        <row r="308">
+          <cell r="C308" t="str">
+            <v>S2527</v>
+          </cell>
+        </row>
+        <row r="309">
+          <cell r="C309" t="str">
+            <v>S2278</v>
+          </cell>
+        </row>
+        <row r="310">
+          <cell r="C310" t="str">
+            <v>S2467</v>
+          </cell>
+        </row>
+        <row r="311">
+          <cell r="C311" t="str">
+            <v>S2154</v>
+          </cell>
+        </row>
+        <row r="312">
+          <cell r="C312" t="str">
+            <v>S2384</v>
+          </cell>
+        </row>
+        <row r="313">
+          <cell r="C313" t="str">
+            <v>S2496</v>
+          </cell>
+        </row>
+        <row r="314">
+          <cell r="C314" t="str">
+            <v>S2309</v>
+          </cell>
+        </row>
+        <row r="315">
+          <cell r="C315" t="str">
+            <v>S2525</v>
+          </cell>
+        </row>
+        <row r="316">
+          <cell r="C316" t="str">
+            <v>S2449</v>
+          </cell>
+        </row>
+        <row r="317">
+          <cell r="C317" t="str">
+            <v>S736</v>
+          </cell>
+        </row>
+        <row r="318">
+          <cell r="C318" t="str">
+            <v>S2303</v>
+          </cell>
+        </row>
+        <row r="319">
+          <cell r="C319" t="str">
+            <v>S2394</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="C320" t="str">
+            <v>S2601</v>
+          </cell>
+        </row>
+        <row r="321">
+          <cell r="C321" t="str">
+            <v>S513</v>
+          </cell>
+        </row>
+        <row r="322">
+          <cell r="C322" t="str">
+            <v>S964</v>
+          </cell>
+        </row>
+        <row r="323">
+          <cell r="C323" t="str">
+            <v>S44</v>
+          </cell>
+        </row>
+        <row r="324">
+          <cell r="C324" t="str">
+            <v>S2529</v>
+          </cell>
+        </row>
+        <row r="325">
+          <cell r="C325" t="str">
+            <v>S2442</v>
+          </cell>
+        </row>
+        <row r="326">
+          <cell r="C326" t="str">
+            <v>S989</v>
+          </cell>
+        </row>
+        <row r="327">
+          <cell r="C327" t="str">
+            <v>S511</v>
+          </cell>
+        </row>
+        <row r="328">
+          <cell r="C328" t="str">
+            <v>S754</v>
+          </cell>
+        </row>
+        <row r="329">
+          <cell r="C329" t="str">
+            <v>S2611</v>
+          </cell>
+        </row>
+        <row r="330">
+          <cell r="C330" t="str">
+            <v>S2272</v>
+          </cell>
+        </row>
+        <row r="331">
+          <cell r="C331" t="str">
+            <v>S2016</v>
+          </cell>
+        </row>
+        <row r="332">
+          <cell r="C332" t="str">
+            <v>S913</v>
+          </cell>
+        </row>
+        <row r="333">
+          <cell r="C333" t="str">
+            <v>S901</v>
+          </cell>
+        </row>
+        <row r="334">
+          <cell r="C334" t="str">
+            <v>S504</v>
+          </cell>
+        </row>
+        <row r="335">
+          <cell r="C335" t="str">
+            <v>S2056</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="C336" t="str">
+            <v>S903</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="C337" t="str">
+            <v>S41</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="C338" t="str">
+            <v>S929</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="C339" t="str">
+            <v>S2379</v>
+          </cell>
+        </row>
+        <row r="340">
+          <cell r="C340" t="str">
+            <v>S2568</v>
+          </cell>
+        </row>
+        <row r="341">
+          <cell r="C341" t="str">
+            <v>S2331</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="C342" t="str">
+            <v>S2387</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="C343" t="str">
+            <v>S2231</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="C344" t="str">
+            <v>S2196</v>
+          </cell>
+        </row>
+        <row r="345">
+          <cell r="C345" t="str">
+            <v>S353</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="C346" t="str">
+            <v>S700</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="C347" t="str">
+            <v>S2002</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="C348" t="str">
+            <v>S531</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="C349" t="str">
+            <v>S287</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="C350" t="str">
+            <v>S2286</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="C351" t="str">
+            <v>S2297</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="C352" t="str">
+            <v>S818</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="C353" t="str">
+            <v>S2506</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="C354" t="str">
+            <v>S2559</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="C355" t="str">
+            <v>S2426</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="C356" t="str">
+            <v>S2448</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="C357" t="str">
+            <v>S545</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="C358" t="str">
+            <v>S995</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="C359" t="str">
+            <v>S740</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="C360" t="str">
+            <v>S806</v>
+          </cell>
+        </row>
+        <row r="361">
+          <cell r="C361" t="str">
+            <v>S968</v>
+          </cell>
+        </row>
+        <row r="362">
+          <cell r="C362" t="str">
+            <v>S2320</v>
+          </cell>
+        </row>
+        <row r="363">
+          <cell r="C363" t="str">
+            <v>S2280</v>
+          </cell>
+        </row>
+        <row r="364">
+          <cell r="C364" t="str">
+            <v>S2216</v>
+          </cell>
+        </row>
+        <row r="365">
+          <cell r="C365" t="str">
+            <v>S761</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="C366" t="str">
+            <v>S2620</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="C367" t="str">
+            <v>S2627</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="C368" t="str">
+            <v>S2530</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="C369" t="str">
+            <v>PQO1002</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="C370" t="str">
+            <v>S2127</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="C371" t="str">
+            <v>S1024</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="C372" t="str">
+            <v>S747</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="C373" t="str">
+            <v>S2501</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="C374" t="str">
+            <v>S2304</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="C375" t="str">
+            <v>S865</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="C376" t="str">
+            <v>S424</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="C377" t="str">
+            <v>S2073</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="C378" t="str">
+            <v>S2314</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="C379" t="str">
+            <v>S2247</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="C380" t="str">
+            <v>S2228</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="C381" t="str">
+            <v>S452</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="C382" t="str">
+            <v>S2035</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="C383" t="str">
+            <v>S288</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="C384" t="str">
+            <v>S2348</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="C385" t="str">
+            <v>S2075</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="C386" t="str">
+            <v>S953</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="C387" t="str">
+            <v>S2351</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="C388" t="str">
+            <v>S2190</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="C389" t="str">
+            <v>S2041</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="C390" t="str">
+            <v>S2060</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="C391" t="str">
+            <v>S2226</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="C392" t="str">
+            <v>S2639</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="C393" t="str">
+            <v>S919</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="C394" t="str">
+            <v>S2087</v>
+          </cell>
+        </row>
+        <row r="395">
+          <cell r="C395" t="str">
+            <v>S2518</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="C396" t="str">
+            <v>S2316</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="C397" t="str">
+            <v>S2494</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="C398" t="str">
+            <v>S2099</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="C399" t="str">
+            <v>S2279</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="C400" t="str">
+            <v>S2447</v>
+          </cell>
+        </row>
+        <row r="401">
+          <cell r="C401" t="str">
+            <v>S2095</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="C402" t="str">
+            <v>S2335</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="C403" t="str">
+            <v>S2389</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="C404" t="str">
+            <v>S894</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="C405" t="str">
+            <v>S624</v>
+          </cell>
+        </row>
+        <row r="406">
+          <cell r="C406" t="str">
+            <v>S2179</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="C407" t="str">
+            <v>S2499</v>
+          </cell>
+        </row>
+        <row r="408">
+          <cell r="C408" t="str">
+            <v>S2181</v>
+          </cell>
+        </row>
+        <row r="409">
+          <cell r="C409" t="str">
+            <v>S2136</v>
+          </cell>
+        </row>
+        <row r="410">
+          <cell r="C410" t="str">
+            <v>S668</v>
+          </cell>
+        </row>
+        <row r="411">
+          <cell r="C411" t="str">
+            <v>S2365</v>
+          </cell>
+        </row>
+        <row r="412">
+          <cell r="C412" t="str">
+            <v>S2161</v>
+          </cell>
+        </row>
+        <row r="413">
+          <cell r="C413" t="str">
+            <v>S2445</v>
+          </cell>
+        </row>
+        <row r="414">
+          <cell r="C414" t="str">
+            <v>S2302</v>
+          </cell>
+        </row>
+        <row r="415">
+          <cell r="C415" t="str">
+            <v>S1009</v>
+          </cell>
+        </row>
+        <row r="416">
+          <cell r="C416" t="str">
+            <v>S2388</v>
+          </cell>
+        </row>
+        <row r="417">
+          <cell r="C417" t="str">
+            <v>S2344</v>
+          </cell>
+        </row>
+        <row r="418">
+          <cell r="C418" t="str">
+            <v>S2171</v>
+          </cell>
+        </row>
+        <row r="419">
+          <cell r="C419" t="str">
+            <v>S2281</v>
+          </cell>
+        </row>
+        <row r="420">
+          <cell r="C420" t="str">
+            <v>S2208</v>
+          </cell>
+        </row>
+        <row r="421">
+          <cell r="C421" t="str">
+            <v>S679</v>
+          </cell>
+        </row>
+        <row r="422">
+          <cell r="C422" t="str">
+            <v>S2476</v>
+          </cell>
+        </row>
+        <row r="423">
+          <cell r="C423" t="str">
+            <v>S2635</v>
+          </cell>
+        </row>
+        <row r="424">
+          <cell r="C424" t="str">
+            <v>S2478</v>
+          </cell>
+        </row>
+        <row r="425">
+          <cell r="C425" t="str">
+            <v>S2642</v>
+          </cell>
+        </row>
+        <row r="426">
+          <cell r="C426" t="str">
+            <v>S640</v>
+          </cell>
+        </row>
+        <row r="427">
+          <cell r="C427" t="str">
+            <v>S859</v>
+          </cell>
+        </row>
+        <row r="428">
+          <cell r="C428" t="str">
+            <v>S2107</v>
+          </cell>
+        </row>
+        <row r="429">
+          <cell r="C429" t="str">
+            <v>S2055</v>
+          </cell>
+        </row>
+        <row r="430">
+          <cell r="C430" t="str">
+            <v>S2517</v>
+          </cell>
+        </row>
+        <row r="431">
+          <cell r="C431" t="str">
+            <v>S1201</v>
+          </cell>
+        </row>
+        <row r="432">
+          <cell r="C432" t="str">
+            <v>S2371</v>
+          </cell>
+        </row>
+        <row r="433">
+          <cell r="C433" t="str">
+            <v>S856</v>
+          </cell>
+        </row>
+        <row r="434">
+          <cell r="C434" t="str">
+            <v>S825</v>
+          </cell>
+        </row>
+        <row r="435">
+          <cell r="C435" t="str">
+            <v>S2123</v>
+          </cell>
+        </row>
+        <row r="436">
+          <cell r="C436" t="str">
+            <v>S2470</v>
+          </cell>
+        </row>
+        <row r="437">
+          <cell r="C437" t="str">
+            <v>S746</v>
+          </cell>
+        </row>
+        <row r="438">
+          <cell r="C438" t="str">
+            <v>S885</v>
+          </cell>
+        </row>
+        <row r="439">
+          <cell r="C439" t="str">
+            <v>S2011</v>
+          </cell>
+        </row>
+        <row r="440">
+          <cell r="C440" t="str">
+            <v>S2495</v>
+          </cell>
+        </row>
+        <row r="441">
+          <cell r="C441" t="str">
+            <v>S2195</v>
+          </cell>
+        </row>
+        <row r="442">
+          <cell r="C442" t="str">
+            <v>S787</v>
+          </cell>
+        </row>
+        <row r="443">
+          <cell r="C443" t="str">
+            <v>S2597</v>
+          </cell>
+        </row>
+        <row r="444">
+          <cell r="C444" t="str">
+            <v>S2497</v>
+          </cell>
+        </row>
+        <row r="445">
+          <cell r="C445" t="str">
+            <v>S2437</v>
+          </cell>
+        </row>
+        <row r="446">
+          <cell r="C446" t="str">
+            <v>S868</v>
+          </cell>
+        </row>
+        <row r="447">
+          <cell r="C447" t="str">
+            <v>S2277</v>
+          </cell>
+        </row>
+        <row r="448">
+          <cell r="C448" t="str">
+            <v>S2671</v>
+          </cell>
+        </row>
+        <row r="449">
+          <cell r="C449" t="str">
+            <v>S2168</v>
+          </cell>
+        </row>
+        <row r="450">
+          <cell r="C450" t="str">
+            <v>S2156</v>
+          </cell>
+        </row>
+        <row r="451">
+          <cell r="C451" t="str">
+            <v>S2356</v>
+          </cell>
+        </row>
+        <row r="452">
+          <cell r="C452" t="str">
+            <v>S677</v>
+          </cell>
+        </row>
+        <row r="453">
+          <cell r="C453" t="str">
+            <v>S639</v>
+          </cell>
+        </row>
+        <row r="454">
+          <cell r="C454" t="str">
+            <v>S2380</v>
+          </cell>
+        </row>
+        <row r="455">
+          <cell r="C455" t="str">
+            <v>S2287</v>
+          </cell>
+        </row>
+        <row r="456">
+          <cell r="C456" t="str">
+            <v>S2485</v>
+          </cell>
+        </row>
+        <row r="457">
+          <cell r="C457" t="str">
+            <v>S2274</v>
+          </cell>
+        </row>
+        <row r="458">
+          <cell r="C458" t="str">
+            <v>S977</v>
+          </cell>
+        </row>
+        <row r="459">
+          <cell r="C459" t="str">
+            <v>S676</v>
+          </cell>
+        </row>
+        <row r="460">
+          <cell r="C460" t="str">
+            <v>S2209</v>
+          </cell>
+        </row>
+        <row r="461">
+          <cell r="C461" t="str">
+            <v>S2001</v>
+          </cell>
+        </row>
+        <row r="462">
+          <cell r="C462" t="str">
+            <v>S2457</v>
+          </cell>
+        </row>
+        <row r="463">
+          <cell r="C463" t="str">
+            <v>S2377</v>
+          </cell>
+        </row>
+        <row r="464">
+          <cell r="C464" t="str">
+            <v>S2654</v>
+          </cell>
+        </row>
+        <row r="465">
+          <cell r="C465" t="str">
+            <v>S2192</v>
+          </cell>
+        </row>
+        <row r="466">
+          <cell r="C466" t="str">
+            <v>S857</v>
+          </cell>
+        </row>
+        <row r="467">
+          <cell r="C467" t="str">
+            <v>S2565</v>
+          </cell>
+        </row>
+        <row r="468">
+          <cell r="C468" t="str">
+            <v>S909</v>
+          </cell>
+        </row>
+        <row r="469">
+          <cell r="C469" t="str">
+            <v>S904</v>
+          </cell>
+        </row>
+        <row r="470">
+          <cell r="C470" t="str">
+            <v>S762</v>
+          </cell>
+        </row>
+        <row r="471">
+          <cell r="C471" t="str">
+            <v>S2438</v>
+          </cell>
+        </row>
+        <row r="472">
+          <cell r="C472" t="str">
+            <v>S2411</v>
+          </cell>
+        </row>
+        <row r="473">
+          <cell r="C473" t="str">
+            <v>S2594</v>
+          </cell>
+        </row>
+        <row r="474">
+          <cell r="C474" t="str">
+            <v>S2184</v>
+          </cell>
+        </row>
+        <row r="475">
+          <cell r="C475" t="str">
+            <v>S2291</v>
+          </cell>
+        </row>
+        <row r="476">
+          <cell r="C476" t="str">
+            <v>S2263</v>
+          </cell>
+        </row>
+        <row r="477">
+          <cell r="C477" t="str">
+            <v>S2667</v>
+          </cell>
+        </row>
+        <row r="478">
+          <cell r="C478" t="str">
+            <v>S2264</v>
+          </cell>
+        </row>
+        <row r="479">
+          <cell r="C479" t="str">
+            <v>S2289</v>
+          </cell>
+        </row>
+        <row r="480">
+          <cell r="C480" t="str">
+            <v>S2068</v>
+          </cell>
+        </row>
+        <row r="481">
+          <cell r="C481" t="str">
+            <v>S973</v>
+          </cell>
+        </row>
+        <row r="482">
+          <cell r="C482" t="str">
+            <v>S2466</v>
+          </cell>
+        </row>
+        <row r="483">
+          <cell r="C483" t="str">
+            <v>S820</v>
+          </cell>
+        </row>
+        <row r="484">
+          <cell r="C484" t="str">
+            <v>S2306</v>
+          </cell>
+        </row>
+        <row r="485">
+          <cell r="C485" t="str">
+            <v>S2441</v>
+          </cell>
+        </row>
+        <row r="486">
+          <cell r="C486" t="str">
+            <v>S935</v>
+          </cell>
+        </row>
+        <row r="487">
+          <cell r="C487" t="str">
+            <v>S2258</v>
+          </cell>
+        </row>
+        <row r="488">
+          <cell r="C488" t="str">
+            <v>S337</v>
+          </cell>
+        </row>
+        <row r="489">
+          <cell r="C489" t="str">
+            <v>S2039</v>
+          </cell>
+        </row>
+        <row r="490">
+          <cell r="C490" t="str">
+            <v>S2276</v>
+          </cell>
+        </row>
+        <row r="491">
+          <cell r="C491" t="str">
+            <v>S2047</v>
+          </cell>
+        </row>
+        <row r="492">
+          <cell r="C492" t="str">
+            <v>S2573</v>
+          </cell>
+        </row>
+        <row r="493">
+          <cell r="C493" t="str">
+            <v>S2294</v>
+          </cell>
+        </row>
+        <row r="494">
+          <cell r="C494" t="str">
+            <v>S616</v>
+          </cell>
+        </row>
+        <row r="495">
+          <cell r="C495" t="str">
+            <v>S706</v>
+          </cell>
+        </row>
+        <row r="496">
+          <cell r="C496" t="str">
+            <v>S168</v>
+          </cell>
+        </row>
+        <row r="497">
+          <cell r="C497" t="str">
+            <v>S2569</v>
+          </cell>
+        </row>
+        <row r="498">
+          <cell r="C498" t="str">
+            <v>S544</v>
+          </cell>
+        </row>
+        <row r="499">
+          <cell r="C499" t="str">
+            <v>S2244</v>
+          </cell>
+        </row>
+        <row r="500">
+          <cell r="C500" t="str">
+            <v>S874</v>
+          </cell>
+        </row>
+        <row r="501">
+          <cell r="C501" t="str">
+            <v>S2634</v>
+          </cell>
+        </row>
+        <row r="502">
+          <cell r="C502" t="str">
+            <v>S711</v>
+          </cell>
+        </row>
+        <row r="503">
+          <cell r="C503" t="str">
+            <v>S2661</v>
+          </cell>
+        </row>
+        <row r="504">
+          <cell r="C504" t="str">
+            <v>S735</v>
+          </cell>
+        </row>
+        <row r="505">
+          <cell r="C505" t="str">
+            <v>S1040</v>
+          </cell>
+        </row>
+        <row r="506">
+          <cell r="C506" t="str">
+            <v>S467</v>
+          </cell>
+        </row>
+        <row r="507">
+          <cell r="C507" t="str">
+            <v>S502</v>
+          </cell>
+        </row>
+        <row r="508">
+          <cell r="C508" t="str">
+            <v>S941</v>
+          </cell>
+        </row>
+        <row r="509">
+          <cell r="C509" t="str">
+            <v>S2070</v>
+          </cell>
+        </row>
+        <row r="510">
+          <cell r="C510" t="str">
+            <v>S682</v>
+          </cell>
+        </row>
+        <row r="511">
+          <cell r="C511" t="str">
+            <v>S842</v>
+          </cell>
+        </row>
+        <row r="512">
+          <cell r="C512" t="str">
+            <v>S646</v>
+          </cell>
+        </row>
+        <row r="513">
+          <cell r="C513" t="str">
+            <v>S2675</v>
+          </cell>
+        </row>
+        <row r="514">
+          <cell r="C514" t="str">
+            <v>S522</v>
+          </cell>
+        </row>
+        <row r="515">
+          <cell r="C515" t="str">
+            <v>PQ1008</v>
+          </cell>
+        </row>
+        <row r="516">
+          <cell r="C516" t="str">
+            <v>S463</v>
+          </cell>
+        </row>
+        <row r="517">
+          <cell r="C517" t="str">
+            <v>S769</v>
+          </cell>
+        </row>
+        <row r="518">
+          <cell r="C518" t="str">
+            <v>SPQ1009</v>
+          </cell>
+        </row>
+        <row r="519">
+          <cell r="C519" t="str">
+            <v>S2513</v>
+          </cell>
+        </row>
+        <row r="520">
+          <cell r="C520" t="str">
+            <v>S383</v>
+          </cell>
+        </row>
+        <row r="521">
+          <cell r="C521" t="str">
+            <v>S389</v>
+          </cell>
+        </row>
+        <row r="522">
+          <cell r="C522" t="str">
+            <v>S812</v>
+          </cell>
+        </row>
+        <row r="523">
+          <cell r="C523" t="str">
+            <v>S897</v>
+          </cell>
+        </row>
+        <row r="524">
+          <cell r="C524" t="str">
+            <v>S523</v>
+          </cell>
+        </row>
+        <row r="525">
+          <cell r="C525" t="str">
+            <v>S991</v>
+          </cell>
+        </row>
+        <row r="526">
+          <cell r="C526" t="str">
+            <v>S2408</v>
+          </cell>
+        </row>
+        <row r="527">
+          <cell r="C527" t="str">
+            <v>S2108</v>
+          </cell>
+        </row>
+        <row r="528">
+          <cell r="C528" t="str">
+            <v>S576</v>
+          </cell>
+        </row>
+        <row r="529">
+          <cell r="C529" t="str">
+            <v>S2260</v>
+          </cell>
+        </row>
+        <row r="530">
+          <cell r="C530" t="str">
+            <v>S2098</v>
+          </cell>
+        </row>
+        <row r="531">
+          <cell r="C531" t="str">
+            <v>S17</v>
+          </cell>
+        </row>
+        <row r="532">
+          <cell r="C532" t="str">
+            <v>S667</v>
+          </cell>
+        </row>
+        <row r="533">
+          <cell r="C533" t="str">
+            <v>S496</v>
+          </cell>
+        </row>
+        <row r="534">
+          <cell r="C534" t="str">
+            <v>S2409</v>
+          </cell>
+        </row>
+        <row r="535">
+          <cell r="C535" t="str">
+            <v>S2523</v>
+          </cell>
+        </row>
+        <row r="536">
+          <cell r="C536" t="str">
+            <v>LT1002</v>
+          </cell>
+        </row>
+        <row r="537">
+          <cell r="C537" t="str">
+            <v>S525</v>
+          </cell>
+        </row>
+        <row r="538">
+          <cell r="C538" t="str">
+            <v>S713</v>
+          </cell>
+        </row>
+        <row r="539">
+          <cell r="C539" t="str">
+            <v>S2324</v>
+          </cell>
+        </row>
+        <row r="540">
+          <cell r="C540" t="str">
+            <v>E290</v>
+          </cell>
+        </row>
+        <row r="541">
+          <cell r="C541" t="str">
+            <v>S2444</v>
+          </cell>
+        </row>
+        <row r="542">
+          <cell r="C542" t="str">
+            <v>S2566</v>
+          </cell>
+        </row>
+        <row r="543">
+          <cell r="C543" t="str">
+            <v>S2347</v>
+          </cell>
+        </row>
+        <row r="544">
+          <cell r="C544" t="str">
+            <v>S2025</v>
+          </cell>
+        </row>
+        <row r="545">
+          <cell r="C545" t="str">
+            <v>S2598</v>
+          </cell>
+        </row>
+        <row r="546">
+          <cell r="C546" t="str">
+            <v>S158</v>
+          </cell>
+        </row>
+        <row r="547">
+          <cell r="C547" t="str">
+            <v>S697</v>
+          </cell>
+        </row>
+        <row r="548">
+          <cell r="C548" t="str">
+            <v>S2275</v>
+          </cell>
+        </row>
+        <row r="549">
+          <cell r="C549" t="str">
+            <v>S370</v>
+          </cell>
+        </row>
+        <row r="550">
+          <cell r="C550" t="str">
+            <v>S2142</v>
+          </cell>
+        </row>
+        <row r="551">
+          <cell r="C551" t="str">
+            <v>S994</v>
+          </cell>
+        </row>
+        <row r="552">
+          <cell r="C552" t="str">
+            <v>S2373</v>
+          </cell>
+        </row>
+        <row r="553">
+          <cell r="C553" t="str">
+            <v>S2599</v>
+          </cell>
+        </row>
+        <row r="554">
+          <cell r="C554" t="str">
+            <v>S372</v>
+          </cell>
+        </row>
+        <row r="555">
+          <cell r="C555" t="str">
+            <v>S777</v>
+          </cell>
+        </row>
+        <row r="556">
+          <cell r="C556" t="str">
+            <v>S214</v>
+          </cell>
+        </row>
+        <row r="557">
+          <cell r="C557" t="str">
+            <v>S808</v>
+          </cell>
+        </row>
+        <row r="558">
+          <cell r="C558" t="str">
+            <v>S2067</v>
+          </cell>
+        </row>
+        <row r="559">
+          <cell r="C559" t="str">
+            <v>S2113</v>
+          </cell>
+        </row>
+        <row r="560">
+          <cell r="C560" t="str">
+            <v>S415</v>
+          </cell>
+        </row>
+        <row r="561">
+          <cell r="C561" t="str">
+            <v>S2248</v>
+          </cell>
+        </row>
+        <row r="562">
+          <cell r="C562" t="str">
+            <v>S2468</v>
+          </cell>
+        </row>
+        <row r="563">
+          <cell r="C563" t="str">
+            <v>S2526</v>
+          </cell>
+        </row>
+        <row r="564">
+          <cell r="C564" t="str">
+            <v>S615</v>
+          </cell>
+        </row>
+        <row r="565">
+          <cell r="C565" t="str">
+            <v>LT1006</v>
+          </cell>
+        </row>
+        <row r="566">
+          <cell r="C566" t="str">
+            <v>S2563</v>
+          </cell>
+        </row>
+        <row r="567">
+          <cell r="C567" t="str">
+            <v>S890</v>
+          </cell>
+        </row>
+        <row r="568">
+          <cell r="C568" t="str">
+            <v>S2094</v>
+          </cell>
+        </row>
+        <row r="569">
+          <cell r="C569" t="str">
+            <v>S814</v>
+          </cell>
+        </row>
+        <row r="570">
+          <cell r="C570" t="str">
+            <v>S464</v>
+          </cell>
+        </row>
+        <row r="571">
+          <cell r="C571" t="str">
+            <v>S2618</v>
+          </cell>
+        </row>
+        <row r="572">
+          <cell r="C572" t="str">
+            <v>S2204</v>
+          </cell>
+        </row>
+        <row r="573">
+          <cell r="C573" t="str">
+            <v>S828</v>
+          </cell>
+        </row>
+        <row r="574">
+          <cell r="C574" t="str">
+            <v>S2391</v>
+          </cell>
+        </row>
+        <row r="575">
+          <cell r="C575" t="str">
+            <v>S1011</v>
+          </cell>
+        </row>
+        <row r="576">
+          <cell r="C576" t="str">
+            <v>S2482</v>
+          </cell>
+        </row>
+        <row r="577">
+          <cell r="C577" t="str">
+            <v>LT.a2</v>
+          </cell>
+        </row>
+        <row r="578">
+          <cell r="C578" t="str">
+            <v>S2308</v>
+          </cell>
+        </row>
+        <row r="579">
+          <cell r="C579" t="str">
+            <v>S2665</v>
+          </cell>
+        </row>
+        <row r="580">
+          <cell r="C580" t="str">
+            <v>S772</v>
+          </cell>
+        </row>
+        <row r="581">
+          <cell r="C581" t="str">
+            <v>LT1009</v>
+          </cell>
+        </row>
+        <row r="582">
+          <cell r="C582" t="str">
+            <v>S439</v>
+          </cell>
+        </row>
+        <row r="583">
+          <cell r="C583" t="str">
+            <v>S2015</v>
+          </cell>
+        </row>
+        <row r="584">
+          <cell r="C584" t="str">
+            <v>S771</v>
+          </cell>
+        </row>
+        <row r="585">
+          <cell r="C585" t="str">
+            <v>S2307</v>
+          </cell>
+        </row>
+        <row r="586">
+          <cell r="C586" t="str">
+            <v>S2206</v>
+          </cell>
+        </row>
+        <row r="587">
+          <cell r="C587" t="str">
+            <v>S2357</v>
+          </cell>
+        </row>
+        <row r="588">
+          <cell r="C588" t="str">
+            <v>S805</v>
+          </cell>
+        </row>
+        <row r="589">
+          <cell r="C589" t="str">
+            <v>S2284</v>
+          </cell>
+        </row>
+        <row r="590">
+          <cell r="C590" t="str">
+            <v>S2359</v>
+          </cell>
+        </row>
+        <row r="591">
+          <cell r="C591" t="str">
+            <v>S724</v>
+          </cell>
+        </row>
+        <row r="592">
+          <cell r="C592" t="str">
+            <v>S2361</v>
+          </cell>
+        </row>
+        <row r="593">
+          <cell r="C593" t="str">
+            <v>S273</v>
+          </cell>
+        </row>
+        <row r="594">
+          <cell r="C594" t="str">
+            <v>S898</v>
+          </cell>
+        </row>
+        <row r="595">
+          <cell r="C595" t="str">
+            <v>S753</v>
+          </cell>
+        </row>
+        <row r="596">
+          <cell r="C596" t="str">
+            <v>S2512</v>
+          </cell>
+        </row>
+        <row r="597">
+          <cell r="C597" t="str">
+            <v>TS1</v>
+          </cell>
+        </row>
+        <row r="598">
+          <cell r="C598" t="str">
+            <v>S2175</v>
+          </cell>
+        </row>
+        <row r="599">
+          <cell r="C599" t="str">
+            <v>S2362</v>
+          </cell>
+        </row>
+        <row r="600">
+          <cell r="C600" t="str">
+            <v>S2139</v>
+          </cell>
+        </row>
+        <row r="601">
+          <cell r="C601" t="str">
+            <v>S934</v>
+          </cell>
+        </row>
+        <row r="602">
+          <cell r="C602" t="str">
+            <v>S2385</v>
+          </cell>
+        </row>
+        <row r="603">
+          <cell r="C603" t="str">
+            <v>S167</v>
+          </cell>
+        </row>
+        <row r="604">
+          <cell r="C604" t="str">
+            <v>S997</v>
+          </cell>
+        </row>
+        <row r="605">
+          <cell r="C605" t="str">
+            <v>S2464</v>
+          </cell>
+        </row>
+        <row r="606">
+          <cell r="C606" t="str">
+            <v>S708</v>
+          </cell>
+        </row>
+        <row r="607">
+          <cell r="C607" t="str">
+            <v>S2360</v>
+          </cell>
+        </row>
+        <row r="608">
+          <cell r="C608" t="str">
+            <v>S2106</v>
+          </cell>
+        </row>
+        <row r="609">
+          <cell r="C609" t="str">
+            <v>S2213</v>
+          </cell>
+        </row>
+        <row r="610">
+          <cell r="C610" t="str">
+            <v>S309</v>
+          </cell>
+        </row>
+        <row r="611">
+          <cell r="C611" t="str">
+            <v>S759</v>
+          </cell>
+        </row>
+        <row r="612">
+          <cell r="C612" t="str">
+            <v>S2040</v>
+          </cell>
+        </row>
+        <row r="613">
+          <cell r="C613" t="str">
+            <v>S2186</v>
+          </cell>
+        </row>
+        <row r="614">
+          <cell r="C614" t="str">
+            <v>S2405</v>
+          </cell>
+        </row>
+        <row r="615">
+          <cell r="C615" t="str">
+            <v>S822</v>
+          </cell>
+        </row>
+        <row r="616">
+          <cell r="C616" t="str">
+            <v>S2453</v>
+          </cell>
+        </row>
+        <row r="617">
+          <cell r="C617" t="str">
+            <v>S980</v>
+          </cell>
+        </row>
+        <row r="618">
+          <cell r="C618" t="str">
+            <v>S721</v>
+          </cell>
+        </row>
+        <row r="619">
+          <cell r="C619" t="str">
+            <v>S2310</v>
+          </cell>
+        </row>
+        <row r="620">
+          <cell r="C620" t="str">
+            <v>S537</v>
+          </cell>
+        </row>
+        <row r="621">
+          <cell r="C621" t="str">
+            <v>S2222</v>
+          </cell>
+        </row>
+        <row r="622">
+          <cell r="C622" t="str">
+            <v>S817</v>
+          </cell>
+        </row>
+        <row r="623">
+          <cell r="C623" t="str">
+            <v>S354</v>
+          </cell>
+        </row>
+        <row r="624">
+          <cell r="C624" t="str">
+            <v>S2574</v>
+          </cell>
+        </row>
+        <row r="625">
+          <cell r="C625" t="str">
+            <v>S709</v>
+          </cell>
+        </row>
+        <row r="626">
+          <cell r="C626" t="str">
+            <v>S2227</v>
+          </cell>
+        </row>
+        <row r="627">
+          <cell r="C627" t="str">
+            <v>S2031</v>
+          </cell>
+        </row>
+        <row r="628">
+          <cell r="C628" t="str">
+            <v>S877</v>
+          </cell>
+        </row>
+        <row r="629">
+          <cell r="C629" t="str">
+            <v>S2254</v>
+          </cell>
+        </row>
+        <row r="630">
+          <cell r="C630" t="str">
+            <v>S39</v>
+          </cell>
+        </row>
+        <row r="631">
+          <cell r="C631" t="str">
+            <v>S767</v>
+          </cell>
+        </row>
+        <row r="632">
+          <cell r="C632" t="str">
+            <v>S2295</v>
+          </cell>
+        </row>
+        <row r="633">
+          <cell r="C633" t="str">
+            <v>S1022</v>
+          </cell>
+        </row>
+        <row r="634">
+          <cell r="C634" t="str">
+            <v>S2322</v>
+          </cell>
+        </row>
+        <row r="635">
+          <cell r="C635" t="str">
+            <v>S2327</v>
+          </cell>
+        </row>
+        <row r="636">
+          <cell r="C636" t="str">
+            <v>S565</v>
+          </cell>
+        </row>
+        <row r="637">
+          <cell r="C637" t="str">
+            <v>S2202</v>
+          </cell>
+        </row>
+        <row r="638">
+          <cell r="C638" t="str">
+            <v>S2091</v>
+          </cell>
+        </row>
+        <row r="639">
+          <cell r="C639" t="str">
+            <v>S2330</v>
+          </cell>
+        </row>
+        <row r="640">
+          <cell r="C640" t="str">
+            <v>S312</v>
+          </cell>
+        </row>
+        <row r="641">
+          <cell r="C641" t="str">
+            <v>S791</v>
+          </cell>
+        </row>
+        <row r="642">
+          <cell r="C642" t="str">
+            <v>S438</v>
+          </cell>
+        </row>
+        <row r="643">
+          <cell r="C643" t="str">
+            <v>S2237</v>
+          </cell>
+        </row>
+        <row r="644">
+          <cell r="C644" t="str">
+            <v>S282</v>
+          </cell>
+        </row>
+        <row r="645">
+          <cell r="C645" t="str">
+            <v>S2622</v>
+          </cell>
+        </row>
+        <row r="646">
+          <cell r="C646" t="str">
+            <v>S314</v>
+          </cell>
+        </row>
+        <row r="647">
+          <cell r="C647" t="str">
+            <v>S2119</v>
+          </cell>
+        </row>
+        <row r="648">
+          <cell r="C648" t="str">
+            <v>S2007</v>
+          </cell>
+        </row>
+        <row r="649">
+          <cell r="C649" t="str">
+            <v>S76</v>
+          </cell>
+        </row>
+        <row r="650">
+          <cell r="C650" t="str">
+            <v>S2352</v>
+          </cell>
+        </row>
+        <row r="651">
+          <cell r="C651" t="str">
+            <v>S2232</v>
+          </cell>
+        </row>
+        <row r="652">
+          <cell r="C652" t="str">
+            <v>S2503</v>
+          </cell>
+        </row>
+        <row r="653">
+          <cell r="C653" t="str">
+            <v>S678</v>
+          </cell>
+        </row>
+        <row r="654">
+          <cell r="C654" t="str">
+            <v>S739</v>
+          </cell>
+        </row>
+        <row r="655">
+          <cell r="C655" t="str">
+            <v>S2211</v>
+          </cell>
+        </row>
+        <row r="656">
+          <cell r="C656" t="str">
+            <v>S867</v>
+          </cell>
+        </row>
+        <row r="657">
+          <cell r="C657" t="str">
+            <v>S2535</v>
+          </cell>
+        </row>
+        <row r="658">
+          <cell r="C658" t="str">
+            <v>S2509</v>
+          </cell>
+        </row>
+        <row r="659">
+          <cell r="C659" t="str">
+            <v>S2326</v>
+          </cell>
+        </row>
+        <row r="660">
+          <cell r="C660" t="str">
+            <v>S947</v>
+          </cell>
+        </row>
+        <row r="661">
+          <cell r="C661" t="str">
+            <v>S891</v>
+          </cell>
+        </row>
+        <row r="662">
+          <cell r="C662" t="str">
+            <v>S2596</v>
+          </cell>
+        </row>
+        <row r="663">
+          <cell r="C663" t="str">
+            <v>S2169</v>
+          </cell>
+        </row>
+        <row r="664">
+          <cell r="C664" t="str">
+            <v>S2562</v>
+          </cell>
+        </row>
+        <row r="665">
+          <cell r="C665" t="str">
+            <v>S2018</v>
+          </cell>
+        </row>
+        <row r="666">
+          <cell r="C666" t="str">
+            <v>S466</v>
+          </cell>
+        </row>
+        <row r="667">
+          <cell r="C667" t="str">
+            <v>S2255</v>
+          </cell>
+        </row>
+        <row r="668">
+          <cell r="C668" t="str">
+            <v>S2469</v>
+          </cell>
+        </row>
+        <row r="669">
+          <cell r="C669" t="str">
+            <v>S614</v>
+          </cell>
+        </row>
+        <row r="670">
+          <cell r="C670" t="str">
+            <v>S875</v>
+          </cell>
+        </row>
+        <row r="671">
+          <cell r="C671" t="str">
+            <v>S722</v>
+          </cell>
+        </row>
+        <row r="672">
+          <cell r="C672" t="str">
+            <v>S2621</v>
+          </cell>
+        </row>
+        <row r="673">
+          <cell r="C673" t="str">
+            <v>S979</v>
+          </cell>
+        </row>
+        <row r="674">
+          <cell r="C674" t="str">
+            <v>S533</v>
+          </cell>
+        </row>
+        <row r="675">
+          <cell r="C675" t="str">
+            <v>S788</v>
+          </cell>
+        </row>
+        <row r="676">
+          <cell r="C676" t="str">
+            <v>S834</v>
+          </cell>
+        </row>
+        <row r="677">
+          <cell r="C677" t="str">
+            <v>S.a-936ST</v>
+          </cell>
+        </row>
+        <row r="678">
+          <cell r="C678" t="str">
+            <v>S2427</v>
+          </cell>
+        </row>
+        <row r="679">
+          <cell r="C679" t="str">
+            <v>S2188</v>
+          </cell>
+        </row>
+        <row r="680">
+          <cell r="C680" t="str">
+            <v>S2203</v>
+          </cell>
+        </row>
+        <row r="681">
+          <cell r="C681" t="str">
+            <v>S2153</v>
+          </cell>
+        </row>
+        <row r="682">
+          <cell r="C682" t="str">
+            <v>S2135</v>
+          </cell>
+        </row>
+        <row r="683">
+          <cell r="C683" t="str">
+            <v>S2253</v>
+          </cell>
+        </row>
+        <row r="684">
+          <cell r="C684" t="str">
+            <v>S572</v>
+          </cell>
+        </row>
+        <row r="685">
+          <cell r="C685" t="str">
+            <v>S2150</v>
+          </cell>
+        </row>
+        <row r="686">
+          <cell r="C686" t="str">
+            <v>S2197</v>
+          </cell>
+        </row>
+        <row r="687">
+          <cell r="C687" t="str">
+            <v>S723</v>
+          </cell>
+        </row>
+        <row r="688">
+          <cell r="C688" t="str">
+            <v>S843</v>
+          </cell>
+        </row>
+        <row r="689">
+          <cell r="C689" t="str">
+            <v>S752</v>
+          </cell>
+        </row>
+        <row r="690">
+          <cell r="C690" t="str">
+            <v>S2301</v>
+          </cell>
+        </row>
+        <row r="691">
+          <cell r="C691" t="str">
+            <v>S1010</v>
+          </cell>
+        </row>
+        <row r="692">
+          <cell r="C692" t="str">
+            <v>S393</v>
+          </cell>
+        </row>
+        <row r="693">
+          <cell r="C693" t="str">
+            <v>S599</v>
+          </cell>
+        </row>
+        <row r="694">
+          <cell r="C694" t="str">
+            <v>S2606</v>
+          </cell>
+        </row>
+        <row r="695">
+          <cell r="C695" t="str">
+            <v>S2355</v>
+          </cell>
+        </row>
+        <row r="696">
+          <cell r="C696" t="str">
+            <v>S2547</v>
+          </cell>
+        </row>
+        <row r="697">
+          <cell r="C697" t="str">
+            <v>S2102</v>
+          </cell>
+        </row>
+        <row r="698">
+          <cell r="C698" t="str">
+            <v>S598</v>
+          </cell>
+        </row>
+        <row r="699">
+          <cell r="C699" t="str">
+            <v>S743</v>
+          </cell>
+        </row>
+        <row r="700">
+          <cell r="C700" t="str">
+            <v>S2162</v>
+          </cell>
+        </row>
+        <row r="701">
+          <cell r="C701" t="str">
+            <v>S427</v>
+          </cell>
+        </row>
+        <row r="702">
+          <cell r="C702" t="str">
+            <v>S209</v>
+          </cell>
+        </row>
+        <row r="703">
+          <cell r="C703" t="str">
+            <v>S2580</v>
+          </cell>
+        </row>
+        <row r="704">
+          <cell r="C704" t="str">
+            <v>S2428</v>
+          </cell>
+        </row>
+        <row r="705">
+          <cell r="C705" t="str">
+            <v>S853</v>
+          </cell>
+        </row>
+        <row r="706">
+          <cell r="C706" t="str">
+            <v>S566</v>
+          </cell>
+        </row>
+        <row r="707">
+          <cell r="C707" t="str">
+            <v>S2270</v>
+          </cell>
+        </row>
+        <row r="708">
+          <cell r="C708" t="str">
+            <v>S2537</v>
+          </cell>
+        </row>
+        <row r="709">
+          <cell r="C709" t="str">
+            <v>S785</v>
+          </cell>
+        </row>
+        <row r="710">
+          <cell r="C710" t="str">
+            <v>S622</v>
+          </cell>
+        </row>
+        <row r="711">
+          <cell r="C711" t="str">
+            <v>S2269</v>
+          </cell>
+        </row>
+        <row r="712">
+          <cell r="C712" t="str">
+            <v>S2533</v>
+          </cell>
+        </row>
+        <row r="713">
+          <cell r="C713" t="str">
+            <v>S2420</v>
+          </cell>
+        </row>
+        <row r="714">
+          <cell r="C714" t="str">
+            <v>S2452</v>
+          </cell>
+        </row>
+        <row r="715">
+          <cell r="C715" t="str">
+            <v>S328</v>
+          </cell>
+        </row>
+        <row r="716">
+          <cell r="C716" t="str">
+            <v>S2008</v>
+          </cell>
+        </row>
+        <row r="717">
+          <cell r="C717" t="str">
+            <v>S61</v>
+          </cell>
+        </row>
+        <row r="718">
+          <cell r="C718" t="str">
+            <v>S2109</v>
+          </cell>
+        </row>
+        <row r="719">
+          <cell r="C719" t="str">
+            <v>S2558</v>
+          </cell>
+        </row>
+        <row r="720">
+          <cell r="C720" t="str">
+            <v>S241</v>
+          </cell>
+        </row>
+        <row r="721">
+          <cell r="C721" t="str">
+            <v>S911</v>
+          </cell>
+        </row>
+        <row r="722">
+          <cell r="C722" t="str">
+            <v>S229</v>
+          </cell>
+        </row>
+        <row r="723">
+          <cell r="C723" t="str">
+            <v>S2250</v>
+          </cell>
+        </row>
+        <row r="724">
+          <cell r="C724" t="str">
+            <v>S2483</v>
+          </cell>
+        </row>
+        <row r="725">
+          <cell r="C725" t="str">
+            <v>S2212</v>
+          </cell>
+        </row>
+        <row r="726">
+          <cell r="C726" t="str">
+            <v>S2245</v>
+          </cell>
+        </row>
+        <row r="727">
+          <cell r="C727" t="str">
+            <v>S1000</v>
+          </cell>
+        </row>
+        <row r="728">
+          <cell r="C728" t="str">
+            <v>S1023</v>
+          </cell>
+        </row>
+        <row r="729">
+          <cell r="C729" t="str">
+            <v>S2033</v>
+          </cell>
+        </row>
+        <row r="730">
+          <cell r="C730" t="str">
+            <v>S2341</v>
+          </cell>
+        </row>
+        <row r="731">
+          <cell r="C731" t="str">
+            <v>S984</v>
+          </cell>
+        </row>
+        <row r="732">
+          <cell r="C732" t="str">
+            <v>S954</v>
+          </cell>
+        </row>
+        <row r="733">
+          <cell r="C733" t="str">
+            <v>S971</v>
+          </cell>
+        </row>
+        <row r="734">
+          <cell r="C734" t="str">
+            <v>S663</v>
+          </cell>
+        </row>
+        <row r="735">
+          <cell r="C735" t="str">
+            <v>S560</v>
+          </cell>
+        </row>
+        <row r="736">
+          <cell r="C736" t="str">
+            <v>S2498</v>
+          </cell>
+        </row>
+        <row r="737">
+          <cell r="C737" t="str">
+            <v>S2072</v>
+          </cell>
+        </row>
+        <row r="738">
+          <cell r="C738" t="str">
+            <v>S644</v>
+          </cell>
+        </row>
+        <row r="739">
+          <cell r="C739" t="str">
+            <v>S149</v>
+          </cell>
+        </row>
+        <row r="740">
+          <cell r="C740" t="str">
+            <v>S2342</v>
+          </cell>
+        </row>
+        <row r="741">
+          <cell r="C741" t="str">
+            <v>S2557</v>
+          </cell>
+        </row>
+        <row r="742">
+          <cell r="C742" t="str">
+            <v>S2390</v>
+          </cell>
+        </row>
+        <row r="743">
+          <cell r="C743" t="str">
+            <v>S2473</v>
+          </cell>
+        </row>
+        <row r="744">
+          <cell r="C744" t="str">
+            <v>S2074</v>
+          </cell>
+        </row>
+        <row r="745">
+          <cell r="C745" t="str">
+            <v>S429</v>
+          </cell>
+        </row>
+        <row r="746">
+          <cell r="C746" t="str">
+            <v>S436</v>
+          </cell>
+        </row>
+        <row r="747">
+          <cell r="C747" t="str">
+            <v>LT.x1</v>
+          </cell>
+        </row>
+        <row r="748">
+          <cell r="C748" t="str">
+            <v>S331</v>
+          </cell>
+        </row>
+        <row r="749">
+          <cell r="C749" t="str">
+            <v>S163</v>
+          </cell>
+        </row>
+        <row r="750">
+          <cell r="C750" t="str">
+            <v>S272</v>
+          </cell>
+        </row>
+        <row r="751">
+          <cell r="C751" t="str">
+            <v>S1002</v>
+          </cell>
+        </row>
+        <row r="752">
+          <cell r="C752" t="str">
+            <v>S2157</v>
+          </cell>
+        </row>
+        <row r="753">
+          <cell r="C753" t="str">
+            <v>S2170B</v>
+          </cell>
+        </row>
+        <row r="754">
+          <cell r="C754" t="str">
+            <v>S2412</v>
+          </cell>
+        </row>
+        <row r="755">
+          <cell r="C755" t="str">
+            <v>S2076</v>
+          </cell>
+        </row>
+        <row r="756">
+          <cell r="C756" t="str">
+            <v>S2198</v>
+          </cell>
+        </row>
+        <row r="757">
+          <cell r="C757" t="str">
+            <v>S318</v>
+          </cell>
+        </row>
+        <row r="758">
+          <cell r="C758" t="str">
+            <v>S425</v>
+          </cell>
+        </row>
+        <row r="759">
+          <cell r="C759" t="str">
+            <v>S2413</v>
+          </cell>
+        </row>
+        <row r="760">
+          <cell r="C760" t="str">
+            <v>S271</v>
+          </cell>
+        </row>
+        <row r="761">
+          <cell r="C761" t="str">
+            <v>S234</v>
+          </cell>
+        </row>
+        <row r="762">
+          <cell r="C762" t="str">
+            <v>S2538</v>
+          </cell>
+        </row>
+        <row r="763">
+          <cell r="C763" t="str">
+            <v>S2050</v>
+          </cell>
+        </row>
+        <row r="764">
+          <cell r="C764" t="str">
+            <v>S1203</v>
+          </cell>
+        </row>
+        <row r="765">
+          <cell r="C765" t="str">
+            <v>S500</v>
+          </cell>
+        </row>
+        <row r="766">
+          <cell r="C766" t="str">
+            <v>S2086</v>
+          </cell>
+        </row>
+        <row r="767">
+          <cell r="C767" t="str">
+            <v>S202</v>
+          </cell>
+        </row>
+        <row r="768">
+          <cell r="C768" t="str">
+            <v>S453</v>
+          </cell>
+        </row>
+        <row r="769">
+          <cell r="C769" t="str">
+            <v>S550</v>
+          </cell>
+        </row>
+        <row r="770">
+          <cell r="C770" t="str">
+            <v>S497</v>
+          </cell>
+        </row>
+        <row r="771">
+          <cell r="C771" t="str">
+            <v>S421</v>
+          </cell>
+        </row>
+        <row r="772">
+          <cell r="C772" t="str">
+            <v>S2167</v>
+          </cell>
+        </row>
+        <row r="773">
+          <cell r="C773" t="str">
+            <v>S2583</v>
+          </cell>
+        </row>
+        <row r="774">
+          <cell r="C774" t="str">
+            <v>S284</v>
+          </cell>
+        </row>
+        <row r="775">
+          <cell r="C775" t="str">
+            <v>S2246</v>
+          </cell>
+        </row>
+        <row r="776">
+          <cell r="C776" t="str">
+            <v>S2492</v>
+          </cell>
+        </row>
+        <row r="777">
+          <cell r="C777" t="str">
+            <v>S1014</v>
+          </cell>
+        </row>
+        <row r="778">
+          <cell r="C778" t="str">
+            <v>S2022</v>
+          </cell>
+        </row>
+        <row r="779">
+          <cell r="C779" t="str">
+            <v>S699</v>
+          </cell>
+        </row>
+        <row r="780">
+          <cell r="C780" t="str">
+            <v>S244</v>
+          </cell>
+        </row>
+        <row r="781">
+          <cell r="C781" t="str">
+            <v>S400</v>
+          </cell>
+        </row>
+        <row r="782">
+          <cell r="C782" t="str">
+            <v>S2257</v>
+          </cell>
+        </row>
+        <row r="783">
+          <cell r="C783" t="str">
+            <v>S489</v>
+          </cell>
+        </row>
+        <row r="784">
+          <cell r="C784" t="str">
+            <v>S508</v>
+          </cell>
+        </row>
+        <row r="785">
+          <cell r="C785" t="str">
+            <v>S384</v>
+          </cell>
+        </row>
+        <row r="786">
+          <cell r="C786" t="str">
+            <v>S876</v>
+          </cell>
+        </row>
+        <row r="787">
+          <cell r="C787" t="str">
+            <v>S2159</v>
+          </cell>
+        </row>
+        <row r="788">
+          <cell r="C788" t="str">
+            <v>S1007</v>
+          </cell>
+        </row>
+        <row r="789">
+          <cell r="C789" t="str">
+            <v>S775</v>
+          </cell>
+        </row>
+        <row r="790">
+          <cell r="C790" t="str">
+            <v>S2378</v>
+          </cell>
+        </row>
+        <row r="791">
+          <cell r="C791" t="str">
+            <v>S2455</v>
+          </cell>
+        </row>
+        <row r="792">
+          <cell r="C792" t="str">
+            <v>S2479</v>
+          </cell>
+        </row>
+        <row r="793">
+          <cell r="C793" t="str">
+            <v>S2078</v>
+          </cell>
+        </row>
+        <row r="794">
+          <cell r="C794" t="str">
+            <v>S733</v>
+          </cell>
+        </row>
+        <row r="795">
+          <cell r="C795" t="str">
+            <v>S766</v>
+          </cell>
+        </row>
+        <row r="796">
+          <cell r="C796" t="str">
+            <v>S2474</v>
+          </cell>
+        </row>
+        <row r="797">
+          <cell r="C797" t="str">
+            <v>S2266</v>
+          </cell>
+        </row>
+        <row r="798">
+          <cell r="C798" t="str">
+            <v>S2472</v>
+          </cell>
+        </row>
+        <row r="799">
+          <cell r="C799" t="str">
+            <v>S2265</v>
+          </cell>
+        </row>
+        <row r="800">
+          <cell r="C800" t="str">
+            <v>S2410</v>
+          </cell>
+        </row>
+        <row r="801">
+          <cell r="C801" t="str">
+            <v>S2491</v>
+          </cell>
+        </row>
+        <row r="802">
+          <cell r="C802" t="str">
+            <v>S2024</v>
+          </cell>
+        </row>
+        <row r="803">
+          <cell r="C803" t="str">
+            <v>S773</v>
+          </cell>
+        </row>
+        <row r="804">
+          <cell r="C804" t="str">
+            <v>S685</v>
+          </cell>
+        </row>
+        <row r="805">
+          <cell r="C805" t="str">
+            <v>S763</v>
+          </cell>
+        </row>
+        <row r="806">
+          <cell r="C806" t="str">
+            <v>S2374</v>
+          </cell>
+        </row>
+        <row r="807">
+          <cell r="C807" t="str">
+            <v>S2242</v>
+          </cell>
+        </row>
+        <row r="808">
+          <cell r="C808" t="str">
+            <v>S799</v>
+          </cell>
+        </row>
+        <row r="809">
+          <cell r="C809" t="str">
+            <v>S2454</v>
+          </cell>
+        </row>
+        <row r="810">
+          <cell r="C810" t="str">
+            <v>S2183</v>
+          </cell>
+        </row>
+        <row r="811">
+          <cell r="C811" t="str">
+            <v>S326</v>
+          </cell>
+        </row>
+        <row r="812">
+          <cell r="C812" t="str">
+            <v>S2549</v>
+          </cell>
+        </row>
+        <row r="813">
+          <cell r="C813" t="str">
+            <v>S293</v>
+          </cell>
+        </row>
+        <row r="814">
+          <cell r="C814" t="str">
+            <v>S932</v>
+          </cell>
+        </row>
+        <row r="815">
+          <cell r="C815" t="str">
+            <v>S975</v>
+          </cell>
+        </row>
+        <row r="816">
+          <cell r="C816" t="str">
+            <v>S2261</v>
+          </cell>
+        </row>
+        <row r="817">
+          <cell r="C817" t="str">
+            <v>S2080</v>
+          </cell>
+        </row>
+        <row r="818">
+          <cell r="C818" t="str">
+            <v>S2354</v>
+          </cell>
+        </row>
+        <row r="819">
+          <cell r="C819" t="str">
+            <v>S248</v>
+          </cell>
+        </row>
+        <row r="820">
+          <cell r="C820" t="str">
+            <v>S2059</v>
+          </cell>
+        </row>
+        <row r="821">
+          <cell r="C821" t="str">
+            <v>S2514</v>
+          </cell>
+        </row>
+        <row r="822">
+          <cell r="C822" t="str">
+            <v>S2243</v>
+          </cell>
+        </row>
+        <row r="823">
+          <cell r="C823" t="str">
+            <v>S2133</v>
+          </cell>
+        </row>
+        <row r="824">
+          <cell r="C824" t="str">
+            <v>S960</v>
+          </cell>
+        </row>
+        <row r="825">
+          <cell r="C825" t="str">
+            <v>S2358</v>
+          </cell>
+        </row>
+        <row r="826">
+          <cell r="C826" t="str">
+            <v>S2312</v>
+          </cell>
+        </row>
+        <row r="827">
+          <cell r="C827" t="str">
+            <v>S2125</v>
+          </cell>
+        </row>
+        <row r="828">
+          <cell r="C828" t="str">
+            <v>S2591</v>
+          </cell>
+        </row>
+        <row r="829">
+          <cell r="C829" t="str">
+            <v>S2337</v>
+          </cell>
+        </row>
+        <row r="830">
+          <cell r="C830" t="str">
+            <v>S2579</v>
+          </cell>
+        </row>
+        <row r="831">
+          <cell r="C831" t="str">
+            <v>S978</v>
+          </cell>
+        </row>
+        <row r="832">
+          <cell r="C832" t="str">
+            <v>S611</v>
+          </cell>
+        </row>
+        <row r="833">
+          <cell r="C833" t="str">
+            <v>S2174</v>
+          </cell>
+        </row>
+        <row r="834">
+          <cell r="C834" t="str">
+            <v>S43</v>
+          </cell>
+        </row>
+        <row r="835">
+          <cell r="C835" t="str">
+            <v>S2323</v>
+          </cell>
+        </row>
+        <row r="836">
+          <cell r="C836" t="str">
+            <v>S2423</v>
+          </cell>
+        </row>
+        <row r="837">
+          <cell r="C837" t="str">
+            <v>S2101</v>
+          </cell>
+        </row>
+        <row r="838">
+          <cell r="C838" t="str">
+            <v>S2134</v>
+          </cell>
+        </row>
+        <row r="839">
+          <cell r="C839" t="str">
+            <v>S2363</v>
+          </cell>
+        </row>
+        <row r="840">
+          <cell r="C840" t="str">
+            <v>S690</v>
+          </cell>
+        </row>
+        <row r="841">
+          <cell r="C841" t="str">
+            <v>S243</v>
+          </cell>
+        </row>
+        <row r="842">
+          <cell r="C842" t="str">
+            <v>S2138</v>
+          </cell>
+        </row>
+        <row r="843">
+          <cell r="C843" t="str">
+            <v>S2553</v>
+          </cell>
+        </row>
+        <row r="844">
+          <cell r="C844" t="str">
+            <v>S2616</v>
+          </cell>
+        </row>
+        <row r="845">
+          <cell r="C845" t="str">
+            <v>S988</v>
+          </cell>
+        </row>
+        <row r="846">
+          <cell r="C846" t="str">
+            <v>S2554</v>
+          </cell>
+        </row>
+        <row r="847">
+          <cell r="C847" t="str">
+            <v>S2313</v>
+          </cell>
+        </row>
+        <row r="848">
+          <cell r="C848" t="str">
+            <v>S2210</v>
+          </cell>
+        </row>
+        <row r="849">
+          <cell r="C849" t="str">
+            <v>S2092</v>
+          </cell>
+        </row>
+        <row r="850">
+          <cell r="C850" t="str">
+            <v>S2607</v>
+          </cell>
+        </row>
+        <row r="851">
+          <cell r="C851" t="str">
+            <v>S2111</v>
+          </cell>
+        </row>
+        <row r="852">
+          <cell r="C852" t="str">
+            <v>S2048</v>
+          </cell>
+        </row>
+        <row r="853">
+          <cell r="C853" t="str">
+            <v>S2548</v>
+          </cell>
+        </row>
+        <row r="854">
+          <cell r="C854" t="str">
+            <v>S2502</v>
+          </cell>
+        </row>
+        <row r="855">
+          <cell r="C855" t="str">
+            <v>S2340</v>
+          </cell>
+        </row>
+        <row r="856">
+          <cell r="C856" t="str">
+            <v>S127</v>
+          </cell>
+        </row>
+        <row r="857">
+          <cell r="C857" t="str">
+            <v>S2029</v>
+          </cell>
+        </row>
+        <row r="858">
+          <cell r="C858" t="str">
+            <v>S2586</v>
+          </cell>
+        </row>
+        <row r="859">
+          <cell r="C859" t="str">
+            <v>S2475</v>
+          </cell>
+        </row>
+        <row r="860">
+          <cell r="C860" t="str">
+            <v>S2214</v>
+          </cell>
+        </row>
+        <row r="861">
+          <cell r="C861" t="str">
+            <v>S2625</v>
+          </cell>
+        </row>
+        <row r="862">
+          <cell r="C862" t="str">
+            <v>S2118</v>
+          </cell>
+        </row>
+        <row r="863">
+          <cell r="C863" t="str">
+            <v>S982</v>
+          </cell>
+        </row>
+        <row r="864">
+          <cell r="C864" t="str">
+            <v>S2592</v>
+          </cell>
+        </row>
+        <row r="865">
+          <cell r="C865" t="str">
+            <v>S2103</v>
+          </cell>
+        </row>
+        <row r="866">
+          <cell r="C866" t="str">
+            <v>S2415</v>
+          </cell>
+        </row>
+        <row r="867">
+          <cell r="C867" t="str">
+            <v>S2230</v>
+          </cell>
+        </row>
+        <row r="868">
+          <cell r="C868" t="str">
+            <v>S2089</v>
+          </cell>
+        </row>
+        <row r="869">
+          <cell r="C869" t="str">
+            <v>S117</v>
+          </cell>
+        </row>
+        <row r="870">
+          <cell r="C870" t="str">
+            <v>S2229</v>
+          </cell>
+        </row>
+        <row r="871">
+          <cell r="C871" t="str">
+            <v>S2030</v>
+          </cell>
+        </row>
+        <row r="872">
+          <cell r="C872" t="str">
+            <v>S3</v>
+          </cell>
+        </row>
+        <row r="873">
+          <cell r="C873" t="str">
+            <v>S1028</v>
+          </cell>
+        </row>
+        <row r="874">
+          <cell r="C874" t="str">
+            <v>S2613</v>
+          </cell>
+        </row>
+        <row r="875">
+          <cell r="C875" t="str">
+            <v>S2489</v>
+          </cell>
+        </row>
+        <row r="876">
+          <cell r="C876" t="str">
+            <v>S637</v>
+          </cell>
+        </row>
+        <row r="877">
+          <cell r="C877" t="str">
+            <v>S2273</v>
+          </cell>
+        </row>
+        <row r="878">
+          <cell r="C878" t="str">
+            <v>S2349</v>
+          </cell>
+        </row>
+        <row r="879">
+          <cell r="C879" t="str">
+            <v>S2252</v>
+          </cell>
+        </row>
+        <row r="880">
+          <cell r="C880" t="str">
+            <v>S2085</v>
+          </cell>
+        </row>
+        <row r="881">
+          <cell r="C881" t="str">
+            <v>S2241</v>
+          </cell>
+        </row>
+        <row r="882">
+          <cell r="C882" t="str">
+            <v>S2158</v>
+          </cell>
+        </row>
+        <row r="883">
+          <cell r="C883" t="str">
+            <v>S1020</v>
+          </cell>
+        </row>
+        <row r="884">
+          <cell r="C884" t="str">
+            <v>S751</v>
+          </cell>
+        </row>
+        <row r="885">
+          <cell r="C885" t="str">
+            <v>S2115</v>
+          </cell>
+        </row>
+        <row r="886">
+          <cell r="C886" t="str">
+            <v>S1017</v>
+          </cell>
+        </row>
+        <row r="887">
+          <cell r="C887" t="str">
+            <v>S912</v>
+          </cell>
+        </row>
+        <row r="888">
+          <cell r="C888" t="str">
+            <v>S2536</v>
+          </cell>
+        </row>
+        <row r="889">
+          <cell r="C889" t="str">
+            <v>S2471</v>
+          </cell>
+        </row>
+        <row r="890">
+          <cell r="C890" t="str">
+            <v>S258</v>
+          </cell>
+        </row>
+        <row r="891">
+          <cell r="C891" t="str">
+            <v>S837</v>
+          </cell>
+        </row>
+        <row r="892">
+          <cell r="C892" t="str">
+            <v>S2532</v>
+          </cell>
+        </row>
+        <row r="893">
+          <cell r="C893" t="str">
+            <v>S509</v>
+          </cell>
+        </row>
+        <row r="894">
+          <cell r="C894" t="str">
+            <v>S451</v>
+          </cell>
+        </row>
+        <row r="895">
+          <cell r="C895" t="str">
+            <v>S584</v>
+          </cell>
+        </row>
+        <row r="896">
+          <cell r="C896" t="str">
+            <v>S57</v>
+          </cell>
+        </row>
+        <row r="897">
+          <cell r="C897" t="str">
+            <v>S2376</v>
+          </cell>
+        </row>
+        <row r="898">
+          <cell r="C898" t="str">
+            <v>S683</v>
+          </cell>
+        </row>
+        <row r="899">
+          <cell r="C899" t="str">
+            <v>S238</v>
+          </cell>
+        </row>
+        <row r="900">
+          <cell r="C900" t="str">
+            <v>S939</v>
+          </cell>
+        </row>
+        <row r="901">
+          <cell r="C901" t="str">
+            <v>S2440</v>
+          </cell>
+        </row>
+        <row r="902">
+          <cell r="C902" t="str">
+            <v>S2443</v>
+          </cell>
+        </row>
+        <row r="903">
+          <cell r="C903" t="str">
+            <v>S2061</v>
+          </cell>
+        </row>
+        <row r="904">
+          <cell r="C904" t="str">
+            <v>S2177</v>
+          </cell>
+        </row>
+        <row r="905">
+          <cell r="C905" t="str">
+            <v>S2012</v>
+          </cell>
+        </row>
+        <row r="906">
+          <cell r="C906" t="str">
+            <v>S816</v>
+          </cell>
+        </row>
+        <row r="907">
+          <cell r="C907" t="str">
+            <v>S928</v>
+          </cell>
+        </row>
+        <row r="908">
+          <cell r="C908" t="str">
+            <v>S2588</v>
+          </cell>
+        </row>
+        <row r="909">
+          <cell r="C909" t="str">
+            <v>S618</v>
+          </cell>
+        </row>
+        <row r="910">
+          <cell r="C910" t="str">
+            <v>S2220</v>
+          </cell>
+        </row>
+        <row r="911">
+          <cell r="C911" t="str">
+            <v>S2038</v>
+          </cell>
+        </row>
+        <row r="912">
+          <cell r="C912" t="str">
+            <v>S996</v>
+          </cell>
+        </row>
+        <row r="913">
+          <cell r="C913" t="str">
+            <v>S2271</v>
+          </cell>
+        </row>
+        <row r="914">
+          <cell r="C914" t="str">
+            <v>S861</v>
+          </cell>
+        </row>
+        <row r="915">
+          <cell r="C915" t="str">
+            <v>S917</v>
+          </cell>
+        </row>
+        <row r="916">
+          <cell r="C916" t="str">
+            <v>S2049</v>
+          </cell>
+        </row>
+        <row r="917">
+          <cell r="C917" t="str">
+            <v>S2043</v>
+          </cell>
+        </row>
+        <row r="918">
+          <cell r="C918" t="str">
+            <v>S680</v>
+          </cell>
+        </row>
+        <row r="919">
+          <cell r="C919" t="str">
+            <v>S2259</v>
+          </cell>
+        </row>
+        <row r="920">
+          <cell r="C920" t="str">
+            <v>S249</v>
+          </cell>
+        </row>
+        <row r="921">
+          <cell r="C921" t="str">
+            <v>S2093</v>
+          </cell>
+        </row>
+        <row r="922">
+          <cell r="C922" t="str">
+            <v>S2282</v>
+          </cell>
+        </row>
+        <row r="923">
+          <cell r="C923" t="str">
+            <v>S2346</v>
+          </cell>
+        </row>
+        <row r="924">
+          <cell r="C924" t="str">
+            <v>S2508</v>
+          </cell>
+        </row>
+        <row r="925">
+          <cell r="C925" t="str">
+            <v>S962</v>
+          </cell>
+        </row>
+        <row r="926">
+          <cell r="C926" t="str">
+            <v>S557</v>
+          </cell>
+        </row>
+        <row r="927">
+          <cell r="C927" t="str">
+            <v>S2353</v>
+          </cell>
+        </row>
+        <row r="928">
+          <cell r="C928" t="str">
+            <v>S2383</v>
+          </cell>
+        </row>
+        <row r="929">
+          <cell r="C929" t="str">
+            <v>S692</v>
+          </cell>
+        </row>
+        <row r="930">
+          <cell r="C930" t="str">
+            <v>S1025</v>
+          </cell>
+        </row>
+        <row r="931">
+          <cell r="C931" t="str">
+            <v>S2151</v>
+          </cell>
+        </row>
+        <row r="932">
+          <cell r="C932" t="str">
+            <v>S2585</v>
+          </cell>
+        </row>
+        <row r="933">
+          <cell r="C933" t="str">
+            <v>S2567</v>
+          </cell>
+        </row>
+        <row r="934">
+          <cell r="C934" t="str">
+            <v>S1016</v>
+          </cell>
+        </row>
+        <row r="935">
+          <cell r="C935" t="str">
+            <v>S2176</v>
+          </cell>
+        </row>
+        <row r="936">
+          <cell r="C936" t="str">
+            <v>S2267</v>
+          </cell>
+        </row>
+        <row r="937">
+          <cell r="C937" t="str">
+            <v>S2293</v>
+          </cell>
+        </row>
+        <row r="938">
+          <cell r="C938" t="str">
+            <v>S380</v>
+          </cell>
+        </row>
+        <row r="939">
+          <cell r="C939" t="str">
+            <v>S352</v>
+          </cell>
+        </row>
+        <row r="940">
+          <cell r="C940" t="str">
+            <v>S665</v>
+          </cell>
+        </row>
+        <row r="941">
+          <cell r="C941" t="str">
+            <v>S951</v>
+          </cell>
+        </row>
+        <row r="942">
+          <cell r="C942" t="str">
+            <v>S303</v>
+          </cell>
+        </row>
+        <row r="943">
+          <cell r="C943" t="str">
+            <v>S2288</v>
+          </cell>
+        </row>
+        <row r="944">
+          <cell r="C944" t="str">
+            <v>S2065</v>
+          </cell>
+        </row>
+        <row r="945">
+          <cell r="C945" t="str">
+            <v>S2577</v>
+          </cell>
+        </row>
+        <row r="946">
+          <cell r="C946" t="str">
+            <v>S2570</v>
+          </cell>
+        </row>
+        <row r="947">
+          <cell r="C947" t="str">
+            <v>S299</v>
+          </cell>
+        </row>
+        <row r="948">
+          <cell r="C948" t="str">
+            <v>S1029</v>
+          </cell>
+        </row>
+        <row r="949">
+          <cell r="C949" t="str">
+            <v>S860</v>
+          </cell>
+        </row>
+        <row r="950">
+          <cell r="C950" t="str">
+            <v>S2299</v>
+          </cell>
+        </row>
+        <row r="951">
+          <cell r="C951" t="str">
+            <v>S2225</v>
+          </cell>
+        </row>
+        <row r="952">
+          <cell r="C952" t="str">
+            <v>S36</v>
+          </cell>
+        </row>
+        <row r="953">
+          <cell r="C953" t="str">
+            <v>S2268</v>
+          </cell>
+        </row>
+        <row r="954">
+          <cell r="C954" t="str">
+            <v>LTS.x1</v>
+          </cell>
+        </row>
+        <row r="955">
+          <cell r="C955" t="str">
+            <v>S1003</v>
+          </cell>
+        </row>
+        <row r="956">
+          <cell r="C956" t="str">
+            <v>S794</v>
+          </cell>
+        </row>
+        <row r="957">
+          <cell r="C957" t="str">
+            <v>S869</v>
+          </cell>
+        </row>
+        <row r="958">
+          <cell r="C958" t="str">
+            <v>S2144</v>
+          </cell>
+        </row>
+        <row r="959">
+          <cell r="C959" t="str">
+            <v>S959</v>
+          </cell>
+        </row>
+        <row r="960">
+          <cell r="C960" t="str">
+            <v>S833</v>
+          </cell>
+        </row>
+        <row r="961">
+          <cell r="C961" t="str">
+            <v>S2132</v>
+          </cell>
+        </row>
+        <row r="962">
+          <cell r="C962" t="str">
+            <v>S1019</v>
+          </cell>
+        </row>
+        <row r="963">
+          <cell r="C963" t="str">
+            <v>S836</v>
+          </cell>
+        </row>
+        <row r="964">
+          <cell r="C964" t="str">
+            <v>PQ1004</v>
+          </cell>
+        </row>
+        <row r="965">
+          <cell r="C965" t="str">
+            <v>S1006</v>
+          </cell>
+        </row>
+        <row r="966">
+          <cell r="C966" t="str">
+            <v>S1018</v>
+          </cell>
+        </row>
+        <row r="967">
+          <cell r="C967" t="str">
+            <v>S1026</v>
+          </cell>
+        </row>
+        <row r="968">
+          <cell r="C968" t="str">
+            <v>S1036</v>
+          </cell>
+        </row>
+        <row r="969">
+          <cell r="C969" t="str">
+            <v>S1037</v>
+          </cell>
+        </row>
+        <row r="970">
+          <cell r="C970" t="str">
+            <v>S1039</v>
+          </cell>
+        </row>
+        <row r="971">
+          <cell r="C971" t="str">
+            <v>S2027</v>
+          </cell>
+        </row>
+        <row r="972">
+          <cell r="C972" t="str">
+            <v>S2046</v>
+          </cell>
+        </row>
+        <row r="973">
+          <cell r="C973" t="str">
+            <v>S2053</v>
+          </cell>
+        </row>
+        <row r="974">
+          <cell r="C974" t="str">
+            <v>S2063</v>
+          </cell>
+        </row>
+        <row r="975">
+          <cell r="C975" t="str">
+            <v>S2069</v>
+          </cell>
+        </row>
+        <row r="976">
+          <cell r="C976" t="str">
+            <v>S2071</v>
+          </cell>
+        </row>
+        <row r="977">
+          <cell r="C977" t="str">
+            <v>S2077</v>
+          </cell>
+        </row>
+        <row r="978">
+          <cell r="C978" t="str">
+            <v>S2097</v>
+          </cell>
+        </row>
+        <row r="979">
+          <cell r="C979" t="str">
+            <v>S2100</v>
+          </cell>
+        </row>
+        <row r="980">
+          <cell r="C980" t="str">
+            <v>S2117</v>
+          </cell>
+        </row>
+        <row r="981">
+          <cell r="C981" t="str">
+            <v>S2126</v>
+          </cell>
+        </row>
+        <row r="982">
+          <cell r="C982" t="str">
+            <v>S2137</v>
+          </cell>
+        </row>
+        <row r="983">
+          <cell r="C983" t="str">
+            <v>S2147</v>
+          </cell>
+        </row>
+        <row r="984">
+          <cell r="C984" t="str">
+            <v>S2164</v>
+          </cell>
+        </row>
+        <row r="985">
+          <cell r="C985" t="str">
+            <v>S2178</v>
+          </cell>
+        </row>
+        <row r="986">
+          <cell r="C986" t="str">
+            <v>S2191</v>
+          </cell>
+        </row>
+        <row r="987">
+          <cell r="C987" t="str">
+            <v>S2199</v>
+          </cell>
+        </row>
+        <row r="988">
+          <cell r="C988" t="str">
+            <v>S2217</v>
+          </cell>
+        </row>
+        <row r="989">
+          <cell r="C989" t="str">
+            <v>S2219</v>
+          </cell>
+        </row>
+        <row r="990">
+          <cell r="C990" t="str">
+            <v>S2234</v>
+          </cell>
+        </row>
+        <row r="991">
+          <cell r="C991" t="str">
+            <v>S225</v>
+          </cell>
+        </row>
+        <row r="992">
+          <cell r="C992" t="str">
+            <v>S2292</v>
+          </cell>
+        </row>
+        <row r="993">
+          <cell r="C993" t="str">
+            <v>S2311</v>
+          </cell>
+        </row>
+        <row r="994">
+          <cell r="C994" t="str">
+            <v>S2325</v>
+          </cell>
+        </row>
+        <row r="995">
+          <cell r="C995" t="str">
+            <v>S2333</v>
+          </cell>
+        </row>
+        <row r="996">
+          <cell r="C996" t="str">
+            <v>S2372</v>
+          </cell>
+        </row>
+        <row r="997">
+          <cell r="C997" t="str">
+            <v>S2398B</v>
+          </cell>
+        </row>
+        <row r="998">
+          <cell r="C998" t="str">
+            <v>S2399</v>
+          </cell>
+        </row>
+        <row r="999">
+          <cell r="C999" t="str">
+            <v>S2403</v>
+          </cell>
+        </row>
+        <row r="1000">
+          <cell r="C1000" t="str">
+            <v>S2404</v>
+          </cell>
+        </row>
+        <row r="1001">
+          <cell r="C1001" t="str">
+            <v>S2419</v>
+          </cell>
+        </row>
+        <row r="1002">
+          <cell r="C1002" t="str">
+            <v>S2434</v>
+          </cell>
+        </row>
+        <row r="1003">
+          <cell r="C1003" t="str">
+            <v>S2450</v>
+          </cell>
+        </row>
+        <row r="1004">
+          <cell r="C1004" t="str">
+            <v>S2458</v>
+          </cell>
+        </row>
+        <row r="1005">
+          <cell r="C1005" t="str">
+            <v>S2480</v>
+          </cell>
+        </row>
+        <row r="1006">
+          <cell r="C1006" t="str">
+            <v>S250</v>
+          </cell>
+        </row>
+        <row r="1007">
+          <cell r="C1007" t="str">
+            <v>S2519</v>
+          </cell>
+        </row>
+        <row r="1008">
+          <cell r="C1008" t="str">
+            <v>S2539</v>
+          </cell>
+        </row>
+        <row r="1009">
+          <cell r="C1009" t="str">
+            <v>S2542</v>
+          </cell>
+        </row>
+        <row r="1010">
+          <cell r="C1010" t="str">
+            <v>S2543</v>
+          </cell>
+        </row>
+        <row r="1011">
+          <cell r="C1011" t="str">
+            <v>S2546</v>
+          </cell>
+        </row>
+        <row r="1012">
+          <cell r="C1012" t="str">
+            <v>S2555</v>
+          </cell>
+        </row>
+        <row r="1013">
+          <cell r="C1013" t="str">
+            <v>S2590</v>
+          </cell>
+        </row>
+        <row r="1014">
+          <cell r="C1014" t="str">
+            <v>S2610</v>
+          </cell>
+        </row>
+        <row r="1015">
+          <cell r="C1015" t="str">
+            <v>S2617</v>
+          </cell>
+        </row>
+        <row r="1016">
+          <cell r="C1016" t="str">
+            <v>S2619</v>
+          </cell>
+        </row>
+        <row r="1017">
+          <cell r="C1017" t="str">
+            <v>S2633</v>
+          </cell>
+        </row>
+        <row r="1018">
+          <cell r="C1018" t="str">
+            <v>S2638</v>
+          </cell>
+        </row>
+        <row r="1019">
+          <cell r="C1019" t="str">
+            <v>S2641</v>
+          </cell>
+        </row>
+        <row r="1020">
+          <cell r="C1020" t="str">
+            <v>S2647</v>
+          </cell>
+        </row>
+        <row r="1021">
+          <cell r="C1021" t="str">
+            <v>S268</v>
+          </cell>
+        </row>
+        <row r="1022">
+          <cell r="C1022" t="str">
+            <v>S2682</v>
+          </cell>
+        </row>
+        <row r="1023">
+          <cell r="C1023" t="str">
+            <v>S2683</v>
+          </cell>
+        </row>
+        <row r="1024">
+          <cell r="C1024" t="str">
+            <v>S2691</v>
+          </cell>
+        </row>
+        <row r="1025">
+          <cell r="C1025" t="str">
+            <v>S283</v>
+          </cell>
+        </row>
+        <row r="1026">
+          <cell r="C1026" t="str">
+            <v>S290</v>
+          </cell>
+        </row>
+        <row r="1027">
+          <cell r="C1027" t="str">
+            <v>S298</v>
+          </cell>
+        </row>
+        <row r="1028">
+          <cell r="C1028" t="str">
+            <v>S336</v>
+          </cell>
+        </row>
+        <row r="1029">
+          <cell r="C1029" t="str">
+            <v>S363</v>
+          </cell>
+        </row>
+        <row r="1030">
+          <cell r="C1030" t="str">
+            <v>S364</v>
+          </cell>
+        </row>
+        <row r="1031">
+          <cell r="C1031" t="str">
+            <v>S375</v>
+          </cell>
+        </row>
+        <row r="1032">
+          <cell r="C1032" t="str">
+            <v>S392</v>
+          </cell>
+        </row>
+        <row r="1033">
+          <cell r="C1033" t="str">
+            <v>S396</v>
+          </cell>
+        </row>
+        <row r="1034">
+          <cell r="C1034" t="str">
+            <v>S397</v>
+          </cell>
+        </row>
+        <row r="1035">
+          <cell r="C1035" t="str">
+            <v>S416</v>
+          </cell>
+        </row>
+        <row r="1036">
+          <cell r="C1036" t="str">
+            <v>S420</v>
+          </cell>
+        </row>
+        <row r="1037">
+          <cell r="C1037" t="str">
+            <v>S440</v>
+          </cell>
+        </row>
+        <row r="1038">
+          <cell r="C1038" t="str">
+            <v>S468</v>
+          </cell>
+        </row>
+        <row r="1039">
+          <cell r="C1039" t="str">
+            <v>S487</v>
+          </cell>
+        </row>
+        <row r="1040">
+          <cell r="C1040" t="str">
+            <v>S530</v>
+          </cell>
+        </row>
+        <row r="1041">
+          <cell r="C1041" t="str">
+            <v>S539</v>
+          </cell>
+        </row>
+        <row r="1042">
+          <cell r="C1042" t="str">
+            <v>S542</v>
+          </cell>
+        </row>
+        <row r="1043">
+          <cell r="C1043" t="str">
+            <v>S571</v>
+          </cell>
+        </row>
+        <row r="1044">
+          <cell r="C1044" t="str">
+            <v>S596</v>
+          </cell>
+        </row>
+        <row r="1045">
+          <cell r="C1045" t="str">
+            <v>S625</v>
+          </cell>
+        </row>
+        <row r="1046">
+          <cell r="C1046" t="str">
+            <v>S626</v>
+          </cell>
+        </row>
+        <row r="1047">
+          <cell r="C1047" t="str">
+            <v>S638</v>
+          </cell>
+        </row>
+        <row r="1048">
+          <cell r="C1048" t="str">
+            <v>S664</v>
+          </cell>
+        </row>
+        <row r="1049">
+          <cell r="C1049" t="str">
+            <v>S666</v>
+          </cell>
+        </row>
+        <row r="1050">
+          <cell r="C1050" t="str">
+            <v>S688</v>
+          </cell>
+        </row>
+        <row r="1051">
+          <cell r="C1051" t="str">
+            <v>S691</v>
+          </cell>
+        </row>
+        <row r="1052">
+          <cell r="C1052" t="str">
+            <v>S693</v>
+          </cell>
+        </row>
+        <row r="1053">
+          <cell r="C1053" t="str">
+            <v>S694</v>
+          </cell>
+        </row>
+        <row r="1054">
+          <cell r="C1054" t="str">
+            <v>S726</v>
+          </cell>
+        </row>
+        <row r="1055">
+          <cell r="C1055" t="str">
+            <v>S734</v>
+          </cell>
+        </row>
+        <row r="1056">
+          <cell r="C1056" t="str">
+            <v>S737</v>
+          </cell>
+        </row>
+        <row r="1057">
+          <cell r="C1057" t="str">
+            <v>S756</v>
+          </cell>
+        </row>
+        <row r="1058">
+          <cell r="C1058" t="str">
+            <v>S760</v>
+          </cell>
+        </row>
+        <row r="1059">
+          <cell r="C1059" t="str">
+            <v>S764</v>
+          </cell>
+        </row>
+        <row r="1060">
+          <cell r="C1060" t="str">
+            <v>S782</v>
+          </cell>
+        </row>
+        <row r="1061">
+          <cell r="C1061" t="str">
+            <v>S804</v>
+          </cell>
+        </row>
+        <row r="1062">
+          <cell r="C1062" t="str">
+            <v>S815</v>
+          </cell>
+        </row>
+        <row r="1063">
+          <cell r="C1063" t="str">
+            <v>S819</v>
+          </cell>
+        </row>
+        <row r="1064">
+          <cell r="C1064" t="str">
+            <v>S823</v>
+          </cell>
+        </row>
+        <row r="1065">
+          <cell r="C1065" t="str">
+            <v>S826</v>
+          </cell>
+        </row>
+        <row r="1066">
+          <cell r="C1066" t="str">
+            <v>S829</v>
+          </cell>
+        </row>
+        <row r="1067">
+          <cell r="C1067" t="str">
+            <v>S831</v>
+          </cell>
+        </row>
+        <row r="1068">
+          <cell r="C1068" t="str">
+            <v>S848</v>
+          </cell>
+        </row>
+        <row r="1069">
+          <cell r="C1069" t="str">
+            <v>S852</v>
+          </cell>
+        </row>
+        <row r="1070">
+          <cell r="C1070" t="str">
+            <v>S854</v>
+          </cell>
+        </row>
+        <row r="1071">
+          <cell r="C1071" t="str">
+            <v>S864</v>
+          </cell>
+        </row>
+        <row r="1072">
+          <cell r="C1072" t="str">
+            <v>S866</v>
+          </cell>
+        </row>
+        <row r="1073">
+          <cell r="C1073" t="str">
+            <v>S878</v>
+          </cell>
+        </row>
+        <row r="1074">
+          <cell r="C1074" t="str">
+            <v>S879</v>
+          </cell>
+        </row>
+        <row r="1075">
+          <cell r="C1075" t="str">
+            <v>S887</v>
+          </cell>
+        </row>
+        <row r="1076">
+          <cell r="C1076" t="str">
+            <v>S899</v>
+          </cell>
+        </row>
+        <row r="1077">
+          <cell r="C1077" t="str">
+            <v>S902</v>
+          </cell>
+        </row>
+        <row r="1078">
+          <cell r="C1078" t="str">
+            <v>S910</v>
+          </cell>
+        </row>
+        <row r="1079">
+          <cell r="C1079" t="str">
+            <v>S914</v>
+          </cell>
+        </row>
+        <row r="1080">
+          <cell r="C1080" t="str">
+            <v>S926</v>
+          </cell>
+        </row>
+        <row r="1081">
+          <cell r="C1081" t="str">
+            <v>S927</v>
+          </cell>
+        </row>
+        <row r="1082">
+          <cell r="C1082" t="str">
+            <v>S943</v>
+          </cell>
+        </row>
+        <row r="1083">
+          <cell r="C1083" t="str">
+            <v>S952</v>
+          </cell>
+        </row>
+        <row r="1084">
+          <cell r="C1084" t="str">
+            <v>S990</v>
+          </cell>
+        </row>
+        <row r="1085">
+          <cell r="C1085" t="str">
+            <v>02S</v>
+          </cell>
+        </row>
+        <row r="1086">
+          <cell r="C1086" t="str">
+            <v>04S</v>
+          </cell>
+        </row>
+        <row r="1087">
+          <cell r="C1087" t="str">
+            <v>07S</v>
+          </cell>
+        </row>
+        <row r="1088">
+          <cell r="C1088" t="str">
+            <v>08S</v>
+          </cell>
+        </row>
+        <row r="1089">
+          <cell r="C1089" t="str">
+            <v>09S</v>
+          </cell>
+        </row>
+        <row r="1090">
+          <cell r="C1090" t="str">
+            <v>11S</v>
+          </cell>
+        </row>
+        <row r="1091">
+          <cell r="C1091" t="str">
+            <v>12S</v>
+          </cell>
+        </row>
+        <row r="1092">
+          <cell r="C1092" t="str">
+            <v>13S</v>
+          </cell>
+        </row>
+        <row r="1093">
+          <cell r="C1093" t="str">
+            <v>14S</v>
+          </cell>
+        </row>
+        <row r="1094">
+          <cell r="C1094" t="str">
+            <v>15S</v>
+          </cell>
+        </row>
+        <row r="1095">
+          <cell r="C1095" t="str">
+            <v>16S</v>
+          </cell>
+        </row>
+        <row r="1096">
+          <cell r="C1096" t="str">
+            <v>17E</v>
+          </cell>
+        </row>
+        <row r="1097">
+          <cell r="C1097" t="str">
+            <v>17S</v>
+          </cell>
+        </row>
+        <row r="1098">
+          <cell r="C1098" t="str">
+            <v>20S</v>
+          </cell>
+        </row>
+        <row r="1099">
+          <cell r="C1099" t="str">
+            <v>21S</v>
+          </cell>
+        </row>
+        <row r="1100">
+          <cell r="C1100" t="str">
+            <v>22S</v>
+          </cell>
+        </row>
+        <row r="1101">
+          <cell r="C1101" t="str">
+            <v>23S</v>
+          </cell>
+        </row>
+        <row r="1102">
+          <cell r="C1102" t="str">
+            <v>24S</v>
+          </cell>
+        </row>
+        <row r="1103">
+          <cell r="C1103" t="str">
+            <v>25S</v>
+          </cell>
+        </row>
+        <row r="1104">
+          <cell r="C1104" t="str">
+            <v>26S</v>
+          </cell>
+        </row>
+        <row r="1105">
+          <cell r="C1105" t="str">
+            <v>27S</v>
+          </cell>
+        </row>
+        <row r="1106">
+          <cell r="C1106" t="str">
+            <v>28S</v>
+          </cell>
+        </row>
+        <row r="1107">
+          <cell r="C1107" t="str">
+            <v>29S</v>
+          </cell>
+        </row>
+        <row r="1108">
+          <cell r="C1108" t="str">
+            <v>30S</v>
+          </cell>
+        </row>
+        <row r="1109">
+          <cell r="C1109" t="str">
+            <v>31S</v>
+          </cell>
+        </row>
+        <row r="1110">
+          <cell r="C1110" t="str">
+            <v>32S</v>
+          </cell>
+        </row>
+        <row r="1111">
+          <cell r="C1111" t="str">
+            <v>33S</v>
+          </cell>
+        </row>
+        <row r="1112">
+          <cell r="C1112" t="str">
+            <v>34S</v>
+          </cell>
+        </row>
+        <row r="1113">
+          <cell r="C1113" t="str">
+            <v>35S</v>
+          </cell>
+        </row>
+        <row r="1114">
+          <cell r="C1114" t="str">
+            <v>36S</v>
+          </cell>
+        </row>
+        <row r="1115">
+          <cell r="C1115" t="str">
+            <v>37S</v>
+          </cell>
+        </row>
+        <row r="1116">
+          <cell r="C1116" t="str">
+            <v>38S</v>
+          </cell>
+        </row>
+        <row r="1117">
+          <cell r="C1117" t="str">
+            <v>39S</v>
+          </cell>
+        </row>
+        <row r="1118">
+          <cell r="C1118" t="str">
+            <v>40S</v>
+          </cell>
+        </row>
+        <row r="1119">
+          <cell r="C1119" t="str">
+            <v>41S</v>
+          </cell>
+        </row>
+        <row r="1120">
+          <cell r="C1120" t="str">
+            <v>42S</v>
+          </cell>
+        </row>
+        <row r="1121">
+          <cell r="C1121" t="str">
+            <v>43S</v>
+          </cell>
+        </row>
+        <row r="1122">
+          <cell r="C1122" t="str">
+            <v>LTJ</v>
+          </cell>
+        </row>
+        <row r="1123">
+          <cell r="C1123" t="str">
+            <v>PQ</v>
+          </cell>
+        </row>
+        <row r="1124">
+          <cell r="C1124" t="str">
+            <v>7SColCA1</v>
+          </cell>
+        </row>
+        <row r="1125">
+          <cell r="C1125" t="str">
+            <v>9SColCA1</v>
+          </cell>
+        </row>
+        <row r="1126">
+          <cell r="C1126" t="str">
+            <v>11SColCA1</v>
+          </cell>
+        </row>
+        <row r="1127">
+          <cell r="C1127" t="str">
+            <v>12SColCA1</v>
+          </cell>
+        </row>
+        <row r="1128">
+          <cell r="C1128" t="str">
+            <v>12SColCA2</v>
+          </cell>
+        </row>
+        <row r="1129">
+          <cell r="C1129" t="str">
+            <v>13SColCA2</v>
+          </cell>
+        </row>
+        <row r="1130">
+          <cell r="C1130" t="str">
+            <v>14SColCA1</v>
+          </cell>
+        </row>
+        <row r="1131">
+          <cell r="C1131" t="str">
+            <v>14SColCA2</v>
+          </cell>
+        </row>
+        <row r="1132">
+          <cell r="C1132" t="str">
+            <v>15SColCA1</v>
+          </cell>
+        </row>
+        <row r="1133">
+          <cell r="C1133" t="str">
+            <v>16SColCA1</v>
+          </cell>
+        </row>
+        <row r="1134">
+          <cell r="C1134" t="str">
+            <v>17SColCA1</v>
+          </cell>
+        </row>
+        <row r="1135">
+          <cell r="C1135" t="str">
+            <v>17SColCA2</v>
+          </cell>
+        </row>
+        <row r="1136">
+          <cell r="C1136" t="str">
+            <v>20SColCA1</v>
+          </cell>
+        </row>
+        <row r="1137">
+          <cell r="C1137" t="str">
+            <v>20SColCA3</v>
+          </cell>
+        </row>
+        <row r="1138">
+          <cell r="C1138" t="str">
+            <v>21SColCA1</v>
+          </cell>
+        </row>
+        <row r="1139">
+          <cell r="C1139" t="str">
+            <v>21SColCA2</v>
+          </cell>
+        </row>
+        <row r="1140">
+          <cell r="C1140" t="str">
+            <v>22SColCA1</v>
+          </cell>
+        </row>
+        <row r="1141">
+          <cell r="C1141" t="str">
+            <v>22SColCA2</v>
+          </cell>
+        </row>
+        <row r="1142">
+          <cell r="C1142" t="str">
+            <v>24SColCA1</v>
+          </cell>
+        </row>
+        <row r="1143">
+          <cell r="C1143" t="str">
+            <v>26SColCA1</v>
+          </cell>
+        </row>
+        <row r="1144">
+          <cell r="C1144" t="str">
+            <v>26SColCA2</v>
+          </cell>
+        </row>
+        <row r="1145">
+          <cell r="C1145" t="str">
+            <v>27SColCA1</v>
+          </cell>
+        </row>
+        <row r="1146">
+          <cell r="C1146" t="str">
+            <v>28SColCA1</v>
+          </cell>
+        </row>
+        <row r="1147">
+          <cell r="C1147" t="str">
+            <v>29SColCA1</v>
+          </cell>
+        </row>
+        <row r="1148">
+          <cell r="C1148" t="str">
+            <v>29SColCA2</v>
+          </cell>
+        </row>
+        <row r="1149">
+          <cell r="C1149" t="str">
+            <v>30SColCA1</v>
+          </cell>
+        </row>
+        <row r="1150">
+          <cell r="C1150" t="str">
+            <v>31SColCA1</v>
+          </cell>
+        </row>
+        <row r="1151">
+          <cell r="C1151" t="str">
+            <v>32SColCA1</v>
+          </cell>
+        </row>
+        <row r="1152">
+          <cell r="C1152" t="str">
+            <v>33SColCA1</v>
+          </cell>
+        </row>
+        <row r="1153">
+          <cell r="C1153" t="str">
+            <v>34SColCA1</v>
+          </cell>
+        </row>
+        <row r="1154">
+          <cell r="C1154" t="str">
+            <v>35SColCA1</v>
+          </cell>
+        </row>
+        <row r="1155">
+          <cell r="C1155" t="str">
+            <v>35SColCA2</v>
+          </cell>
+        </row>
+        <row r="1156">
+          <cell r="C1156" t="str">
+            <v>35SColCA3</v>
+          </cell>
+        </row>
+        <row r="1157">
+          <cell r="C1157" t="str">
+            <v>37SColCA1</v>
+          </cell>
+        </row>
+        <row r="1158">
+          <cell r="C1158" t="str">
+            <v>39SColCA1</v>
+          </cell>
+        </row>
+        <row r="1159">
+          <cell r="C1159" t="str">
+            <v>40SColCA1</v>
+          </cell>
+        </row>
+        <row r="1160">
+          <cell r="C1160" t="str">
+            <v>41SColCA2</v>
+          </cell>
+        </row>
+        <row r="1161">
+          <cell r="C1161" t="str">
+            <v>41SColCA3</v>
+          </cell>
+        </row>
+        <row r="1162">
+          <cell r="C1162" t="str">
+            <v>42SColCA1</v>
+          </cell>
+        </row>
+        <row r="1163">
+          <cell r="C1163" t="str">
+            <v>42SColCA2</v>
+          </cell>
+        </row>
+        <row r="1164">
+          <cell r="C1164" t="str">
+            <v>43SColCA1</v>
+          </cell>
+        </row>
+        <row r="1165">
+          <cell r="C1165" t="str">
+            <v>43SColCA2</v>
+          </cell>
+        </row>
+        <row r="1166">
+          <cell r="C1166" t="str">
+            <v>SAT1</v>
+          </cell>
+        </row>
+        <row r="1167">
+          <cell r="C1167" t="str">
+            <v>SAT2</v>
+          </cell>
+        </row>
+        <row r="1168">
+          <cell r="C1168" t="str">
+            <v>SAT3</v>
+          </cell>
+        </row>
+        <row r="1169">
+          <cell r="C1169" t="str">
+            <v>SAT4</v>
+          </cell>
+        </row>
+        <row r="1170">
+          <cell r="C1170" t="str">
+            <v>SAT5</v>
+          </cell>
+        </row>
+        <row r="1171">
+          <cell r="C1171" t="str">
+            <v>SAT6</v>
+          </cell>
+        </row>
+        <row r="1172">
+          <cell r="C1172" t="str">
+            <v>SAT7</v>
+          </cell>
+        </row>
+        <row r="1173">
+          <cell r="C1173" t="str">
+            <v>SAT8</v>
+          </cell>
+        </row>
+        <row r="1174">
+          <cell r="C1174" t="str">
+            <v>SAT9</v>
+          </cell>
+        </row>
+        <row r="1175">
+          <cell r="C1175" t="str">
+            <v>SAT10</v>
+          </cell>
+        </row>
+        <row r="1176">
+          <cell r="C1176" t="str">
+            <v>SAT11</v>
+          </cell>
+        </row>
+        <row r="1177">
+          <cell r="C1177" t="str">
+            <v>SAT12</v>
+          </cell>
+        </row>
+        <row r="1178">
+          <cell r="C1178" t="str">
+            <v>SAT14</v>
+          </cell>
+        </row>
+        <row r="1179">
+          <cell r="C1179" t="str">
+            <v>SAT15</v>
+          </cell>
+        </row>
+        <row r="1180">
+          <cell r="C1180" t="str">
+            <v>SAT16</v>
+          </cell>
+        </row>
+        <row r="1181">
+          <cell r="C1181" t="str">
+            <v>SAT17</v>
+          </cell>
+        </row>
+        <row r="1182">
+          <cell r="C1182" t="str">
+            <v>SAT18</v>
+          </cell>
+        </row>
+        <row r="1183">
+          <cell r="C1183" t="str">
+            <v>SAT19</v>
+          </cell>
+        </row>
+        <row r="1184">
+          <cell r="C1184" t="str">
+            <v>SAT20</v>
+          </cell>
+        </row>
+        <row r="1185">
+          <cell r="C1185" t="str">
+            <v>SAT21</v>
+          </cell>
+        </row>
+        <row r="1186">
+          <cell r="C1186" t="str">
+            <v>SAT22</v>
+          </cell>
+        </row>
+        <row r="1187">
+          <cell r="C1187" t="str">
+            <v>SAT23</v>
+          </cell>
+        </row>
+        <row r="1188">
+          <cell r="C1188" t="str">
+            <v>SAT24</v>
+          </cell>
+        </row>
+        <row r="1189">
+          <cell r="C1189" t="str">
+            <v>SAT25</v>
+          </cell>
+        </row>
+        <row r="1190">
+          <cell r="C1190" t="str">
+            <v>SAT26</v>
+          </cell>
+        </row>
+        <row r="1191">
+          <cell r="C1191" t="str">
+            <v>SAT27</v>
+          </cell>
+        </row>
+        <row r="1192">
+          <cell r="C1192" t="str">
+            <v>SAT28</v>
+          </cell>
+        </row>
+        <row r="1193">
+          <cell r="C1193" t="str">
+            <v>SAT30</v>
+          </cell>
+        </row>
+        <row r="1194">
+          <cell r="C1194" t="str">
+            <v>SAT31</v>
+          </cell>
+        </row>
+        <row r="1195">
+          <cell r="C1195" t="str">
+            <v>SAT32</v>
+          </cell>
+        </row>
+        <row r="1196">
+          <cell r="C1196" t="str">
+            <v>SAT34</v>
+          </cell>
+        </row>
+        <row r="1197">
+          <cell r="C1197" t="str">
+            <v>SAT35</v>
+          </cell>
+        </row>
+        <row r="1198">
+          <cell r="C1198" t="str">
+            <v>SAT37</v>
+          </cell>
+        </row>
+        <row r="1199">
+          <cell r="C1199" t="str">
+            <v>S339</v>
+          </cell>
+        </row>
+        <row r="1200">
+          <cell r="C1200" t="str">
+            <v>S432</v>
+          </cell>
+        </row>
+        <row r="1201">
+          <cell r="C1201" t="str">
+            <v>S551</v>
+          </cell>
+        </row>
+        <row r="1202">
+          <cell r="C1202" t="str">
+            <v>S774</v>
+          </cell>
+        </row>
+        <row r="1203">
+          <cell r="C1203" t="str">
+            <v>Planta Central</v>
+          </cell>
+        </row>
+        <row r="1204">
+          <cell r="C1204" t="str">
+            <v>Planta Gas</v>
+          </cell>
+        </row>
+        <row r="1205">
+          <cell r="C1205" t="str">
+            <v>Planta La Petiza</v>
+          </cell>
+        </row>
+        <row r="1206">
+          <cell r="C1206" t="str">
+            <v>S13</v>
+          </cell>
+        </row>
+        <row r="1207">
+          <cell r="C1207" t="str">
+            <v>S20</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5261,16 +11294,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>225</v>
+        <v>133</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>229</v>
+        <v>137</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>230</v>
+        <v>138</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>235</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5290,7 +11323,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
@@ -5354,7 +11387,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="B7" s="9">
         <v>1</v>
@@ -5398,13 +11431,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>225</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>17</v>
@@ -5419,10 +11452,10 @@
         <v>64</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>233</v>
+        <v>141</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>15</v>
@@ -5643,7 +11676,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>31</v>
@@ -5678,7 +11711,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>31</v>
@@ -5713,7 +11746,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>31</v>
@@ -5748,7 +11781,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>31</v>
@@ -5783,7 +11816,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>31</v>
@@ -5818,7 +11851,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>31</v>
@@ -5853,7 +11886,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>31</v>
@@ -5888,7 +11921,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>31</v>
@@ -5923,7 +11956,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>31</v>
@@ -5958,7 +11991,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>31</v>
@@ -5993,7 +12026,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>31</v>
@@ -6028,7 +12061,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>35</v>
@@ -6063,7 +12096,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>35</v>
@@ -6098,7 +12131,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>35</v>
@@ -6133,7 +12166,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>35</v>
@@ -6168,7 +12201,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>35</v>
@@ -6203,7 +12236,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>35</v>
@@ -6238,7 +12271,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>35</v>
@@ -6273,7 +12306,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>35</v>
@@ -6308,7 +12341,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>35</v>
@@ -6343,7 +12376,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>35</v>
@@ -6378,7 +12411,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>42</v>
@@ -6413,7 +12446,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>42</v>
@@ -6448,7 +12481,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>42</v>
@@ -6483,7 +12516,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>42</v>
@@ -6518,7 +12551,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>42</v>
@@ -6553,7 +12586,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>42</v>
@@ -6588,7 +12621,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>42</v>
@@ -6623,7 +12656,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>42</v>
@@ -6658,7 +12691,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>42</v>
@@ -6693,7 +12726,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>42</v>
@@ -6728,7 +12761,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>42</v>
@@ -6763,7 +12796,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>52</v>
@@ -6798,7 +12831,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>52</v>
@@ -6833,7 +12866,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>52</v>
@@ -6868,7 +12901,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>52</v>
@@ -6903,7 +12936,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>52</v>
@@ -6938,7 +12971,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>52</v>
@@ -6973,7 +13006,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>52</v>
@@ -7008,7 +13041,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>52</v>
@@ -7043,7 +13076,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>52</v>
@@ -7078,7 +13111,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>52</v>
@@ -7113,7 +13146,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>70</v>
@@ -7148,7 +13181,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>70</v>
@@ -7183,7 +13216,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>70</v>
@@ -7218,7 +13251,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>70</v>
@@ -7253,7 +13286,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>70</v>
@@ -7288,7 +13321,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>70</v>
@@ -7323,7 +13356,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>70</v>
@@ -7358,7 +13391,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>70</v>
@@ -7393,7 +13426,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>70</v>
@@ -7428,7 +13461,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>70</v>
@@ -7463,7 +13496,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>70</v>
@@ -7498,7 +13531,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>71</v>
@@ -7533,7 +13566,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>71</v>
@@ -7568,7 +13601,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>71</v>
@@ -7603,7 +13636,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>71</v>
@@ -7638,7 +13671,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>71</v>
@@ -7673,7 +13706,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>71</v>
@@ -7708,7 +13741,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>71</v>
@@ -7743,7 +13776,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>71</v>
@@ -7778,7 +13811,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>69</v>
@@ -7813,7 +13846,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>69</v>
@@ -7848,7 +13881,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>69</v>
@@ -7883,7 +13916,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>69</v>
@@ -7918,7 +13951,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>69</v>
@@ -7953,7 +13986,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>69</v>
@@ -7988,7 +14021,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>69</v>
@@ -8023,7 +14056,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>69</v>
@@ -8058,7 +14091,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>69</v>
@@ -8735,7 +14768,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="F96" s="8" t="s">
         <v>55</v>
@@ -8758,7 +14791,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>63</v>
@@ -8800,10 +14833,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D93"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8823,1114 +14856,1190 @@
       <c r="C1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>234</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2">
-        <v>0.5</v>
+      <c r="D2" t="str">
+        <f>+VLOOKUP(B2,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>02S</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3">
-        <v>0.5</v>
+      <c r="D3" t="str">
+        <f>+VLOOKUP(B3,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>02S</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4">
-        <v>0.5</v>
+        <v>79</v>
+      </c>
+      <c r="D4" t="str">
+        <f>+VLOOKUP(B4,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>07S</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D5" t="str">
+        <f>+VLOOKUP(B5,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>08S</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D6" t="str">
+        <f>+VLOOKUP(B6,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>11S</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D7" t="str">
+        <f>+VLOOKUP(B7,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>11S</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D8" t="str">
+        <f>+VLOOKUP(B8,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>11S</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D9" t="str">
+        <f>+VLOOKUP(B9,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>11S</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D10" t="str">
+        <f>+VLOOKUP(B10,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>11S</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D11" t="str">
+        <f>+VLOOKUP(B11,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>11S</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D12" t="str">
+        <f>+VLOOKUP(B12,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>13S</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D13" t="str">
+        <f>+VLOOKUP(B13,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>14S</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D14" t="str">
+        <f>+VLOOKUP(B14,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>15S</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15">
-        <v>0.5</v>
+        <v>79</v>
+      </c>
+      <c r="D15" t="str">
+        <f>+VLOOKUP(B15,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>16S</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D16" t="str">
+        <f>+VLOOKUP(B16,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>16S</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17">
-        <v>0.5</v>
+        <v>79</v>
+      </c>
+      <c r="D17" t="str">
+        <f>+VLOOKUP(B17,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>17E</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18">
-        <v>0.5</v>
+        <v>79</v>
+      </c>
+      <c r="D18" t="str">
+        <f>+VLOOKUP(B18,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>17E</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D19" t="str">
+        <f>+VLOOKUP(B19,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>17S</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D20" t="str">
+        <f>+VLOOKUP(B20,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>17S</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D21" t="str">
+        <f>+VLOOKUP(B21,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>20S</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D22" t="str">
+        <f>+VLOOKUP(B22,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>20S</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D23" t="str">
+        <f>+VLOOKUP(B23,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>20S</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D24" t="str">
+        <f>+VLOOKUP(B24,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>21S</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D25" t="str">
+        <f>+VLOOKUP(B25,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>21S</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D26" t="str">
+        <f>+VLOOKUP(B26,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>25S</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D27" t="str">
+        <f>+VLOOKUP(B27,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>25S</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D28" t="str">
+        <f>+VLOOKUP(B28,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>25S</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D29" t="str">
+        <f>+VLOOKUP(B29,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>25S</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D30" t="str">
+        <f>+VLOOKUP(B30,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>26S</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D31" t="str">
+        <f>+VLOOKUP(B31,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>26S</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D32" t="str">
+        <f>+VLOOKUP(B32,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>29S</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D33" t="str">
+        <f>+VLOOKUP(B33,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>29S</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D34" t="str">
+        <f>+VLOOKUP(B34,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>29S</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D35" t="str">
+        <f>+VLOOKUP(B35,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>02S</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D36" t="str">
+        <f>+VLOOKUP(B36,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>02S</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D37" t="str">
+        <f>+VLOOKUP(B37,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>02S</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D38" t="str">
+        <f>+VLOOKUP(B38,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>31S</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D39" t="str">
+        <f>+VLOOKUP(B39,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>31S</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D40" t="str">
+        <f>+VLOOKUP(B40,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>32S</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41">
-        <v>0.5</v>
+        <v>79</v>
+      </c>
+      <c r="D41" t="str">
+        <f>+VLOOKUP(B41,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>33S</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42">
-        <v>0.5</v>
+        <v>97</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" t="str">
+        <f>+VLOOKUP(B42,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>33S</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D43" t="str">
+        <f>+VLOOKUP(B43,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>33S</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D44" t="str">
+        <f>+VLOOKUP(B44,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>33S</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D45" t="str">
+        <f>+VLOOKUP(B45,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>34S</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D46" t="str">
+        <f>+VLOOKUP(B46,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>34S</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D47" t="str">
+        <f>+VLOOKUP(B47,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>35S</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D48" t="str">
+        <f>+VLOOKUP(B48,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>35S</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D49" t="str">
+        <f>+VLOOKUP(B49,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>36S</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D50" t="str">
+        <f>+VLOOKUP(B50,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>36S</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D51" t="str">
+        <f>+VLOOKUP(B51,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>37S</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D52" t="str">
+        <f>+VLOOKUP(B52,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>37S</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D53" t="str">
+        <f>+VLOOKUP(B53,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>38S</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D54" t="str">
+        <f>+VLOOKUP(B54,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>38S</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D55" t="str">
+        <f>+VLOOKUP(B55,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>39S</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D56" t="str">
+        <f>+VLOOKUP(B56,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>39S</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D57">
-        <v>0.5</v>
+        <v>105</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" t="str">
+        <f>+VLOOKUP(B57,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>40S</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58">
-        <v>0.5</v>
+        <v>79</v>
+      </c>
+      <c r="D58" t="str">
+        <f>+VLOOKUP(B58,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>40S</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D59" t="str">
+        <f>+VLOOKUP(B59,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>41S</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D60">
-        <v>0.5</v>
+        <v>107</v>
+      </c>
+      <c r="D60" t="str">
+        <f>+VLOOKUP(B60,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>41S</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D61">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D61" t="str">
+        <f>+VLOOKUP(B61,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>42S</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D62">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D62" t="str">
+        <f>+VLOOKUP(B62,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>42S</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D63">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D63" t="str">
+        <f>+VLOOKUP(B63,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>04S</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D64">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D64" t="str">
+        <f>+VLOOKUP(B64,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>08S</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D65" t="str">
+        <f>+VLOOKUP(B65,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>09S</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D66">
-        <v>0.5</v>
+        <v>107</v>
+      </c>
+      <c r="D66" t="str">
+        <f>+VLOOKUP(B66,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>09S</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D67">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D67" t="str">
+        <f>+VLOOKUP(B67,'[12]Puntos de Operacion'!$C$2:$C$1203,1,0)</f>
+        <v>Planta Central</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D68">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D68" t="str">
+        <f>+VLOOKUP(B68,'[12]Puntos de Operacion'!$C$2:$C$1303,1,0)</f>
+        <v>Planta Gas</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D69">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D69" t="str">
+        <f>+VLOOKUP(B69,'[12]Puntos de Operacion'!$C$2:$C$1303,1,0)</f>
+        <v>Planta Gas</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D70">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D70" t="str">
+        <f>+VLOOKUP(B70,'[12]Puntos de Operacion'!$C$2:$C$1303,1,0)</f>
+        <v>Planta La Petiza</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D71">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D71" t="str">
+        <f>+VLOOKUP(B71,'[12]Puntos de Operacion'!$C$2:$C$1303,1,0)</f>
+        <v>Planta La Petiza</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D72">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D72" t="str">
+        <f>+VLOOKUP(B72,'[12]Puntos de Operacion'!$C$2:$C$1303,1,0)</f>
+        <v>Planta La Petiza</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D73">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D73" t="str">
+        <f>+VLOOKUP(B73,'[12]Puntos de Operacion'!$C$2:$C$1303,1,0)</f>
+        <v>S1009</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>187</v>
+        <v>114</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D74" t="str">
+        <f>+VLOOKUP(B74,'[12]Puntos de Operacion'!$C$2:$C$1303,1,0)</f>
+        <v>S13</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D75" t="str">
+        <f>+VLOOKUP(B75,'[12]Puntos de Operacion'!$C$2:$C$1303,1,0)</f>
+        <v>S20</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D76">
-        <v>0.5</v>
+        <v>79</v>
+      </c>
+      <c r="D76" t="str">
+        <f>+VLOOKUP(B76,'[12]Puntos de Operacion'!$C$2:$C$1303,1,0)</f>
+        <v>S2013</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D77">
-        <v>0.5</v>
+        <v>79</v>
+      </c>
+      <c r="D77" t="str">
+        <f>+VLOOKUP(B77,'[12]Puntos de Operacion'!$C$2:$C$1303,1,0)</f>
+        <v>S2013</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D78">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D78" t="str">
+        <f>+VLOOKUP(B78,'[12]Puntos de Operacion'!$C$2:$C$1303,1,0)</f>
+        <v>S2016</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D79">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D79" t="str">
+        <f>+VLOOKUP(B79,'[12]Puntos de Operacion'!$C$2:$C$1303,1,0)</f>
+        <v>S2016</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>197</v>
+        <v>119</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D80">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D80" t="str">
+        <f>+VLOOKUP(B80,'[12]Puntos de Operacion'!$C$2:$C$1303,1,0)</f>
+        <v>S2021</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -9938,195 +16047,163 @@
         <v>198</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D81">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D81" t="str">
+        <f>+VLOOKUP(B81,'[12]Puntos de Operacion'!$C$2:$C$1303,1,0)</f>
+        <v>S2044</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D82">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D82" t="str">
+        <f>+VLOOKUP(B82,'[12]Puntos de Operacion'!$C$2:$C$1303,1,0)</f>
+        <v>S2274</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D83">
-        <v>0.5</v>
+        <v>79</v>
+      </c>
+      <c r="D83" t="str">
+        <f>+VLOOKUP(B83,'[12]Puntos de Operacion'!$C$2:$C$1303,1,0)</f>
+        <v>S237</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D84">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D84" t="str">
+        <f>+VLOOKUP(B84,'[12]Puntos de Operacion'!$C$2:$C$1303,1,0)</f>
+        <v>S237</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>206</v>
+        <v>124</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D85">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D85" t="str">
+        <f>+VLOOKUP(B85,'[12]Puntos de Operacion'!$C$2:$C$1303,1,0)</f>
+        <v>S339</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D86">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D86" t="str">
+        <f>+VLOOKUP(B86,'[12]Puntos de Operacion'!$C$2:$C$1303,1,0)</f>
+        <v>S432</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D87">
-        <v>0.5</v>
+        <v>79</v>
+      </c>
+      <c r="D87" t="str">
+        <f>+VLOOKUP(B87,'[12]Puntos de Operacion'!$C$2:$C$1303,1,0)</f>
+        <v>S551</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>212</v>
+        <v>127</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D88">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D88" t="str">
+        <f>+VLOOKUP(B88,'[12]Puntos de Operacion'!$C$2:$C$1303,1,0)</f>
+        <v>S774</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>212</v>
+        <v>127</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D89">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="D89" t="str">
+        <f>+VLOOKUP(B89,'[12]Puntos de Operacion'!$C$2:$C$1303,1,0)</f>
+        <v>S774</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>215</v>
+        <v>128</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D90">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D91">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D92">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D93">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="D90" t="str">
+        <f>+VLOOKUP(B90,'[12]Puntos de Operacion'!$C$2:$C$1303,1,0)</f>
+        <v>SAT2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C53"/>
+  <autoFilter ref="A1:C90"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10191,7 +16268,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D7" si="0">24*30.4</f>
+        <f t="shared" ref="D3:D8" si="0">24*30.4</f>
         <v>729.59999999999991</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -10281,6 +16358,27 @@
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="19">
+        <v>8</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>729.59999999999991</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -10295,10 +16393,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10307,44 +16405,74 @@
     <col min="2" max="2" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>221</v>
+        <v>129</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
